--- a/database/industries/zeraat/zegoldasht/product/monthly_seprated.xlsx
+++ b/database/industries/zeraat/zegoldasht/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9C8C12-2763-4F82-BEF1-C87D2DA7ED76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CFEF67-7F76-4BAB-B139-7E8C787DDB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -787,12 +787,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -847,7 +847,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1016,7 +1016,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1185,7 +1185,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1397,7 +1397,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1516,104 +1516,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>3676</v>
       </c>
       <c r="X11" s="11">
-        <v>3676</v>
+        <v>3616</v>
       </c>
       <c r="Y11" s="11">
-        <v>3616</v>
+        <v>3644</v>
       </c>
       <c r="Z11" s="11">
-        <v>3644</v>
+        <v>3550</v>
       </c>
       <c r="AA11" s="11">
-        <v>3550</v>
+        <v>3722</v>
       </c>
       <c r="AB11" s="11">
-        <v>3722</v>
+        <v>3949</v>
       </c>
       <c r="AC11" s="11">
-        <v>3949</v>
+        <v>4119</v>
       </c>
       <c r="AD11" s="11">
-        <v>4119</v>
+        <v>4278</v>
       </c>
       <c r="AE11" s="11">
-        <v>4278</v>
+        <v>4372</v>
       </c>
       <c r="AF11" s="11">
-        <v>4372</v>
+        <v>4539</v>
       </c>
       <c r="AG11" s="11">
-        <v>4539</v>
+        <v>4413</v>
       </c>
       <c r="AH11" s="11">
-        <v>4413</v>
+        <v>4211</v>
       </c>
       <c r="AI11" s="11">
-        <v>4211</v>
+        <v>4133</v>
       </c>
       <c r="AJ11" s="11">
-        <v>4133</v>
+        <v>4128</v>
       </c>
       <c r="AK11" s="11">
-        <v>4128</v>
+        <v>4169</v>
       </c>
       <c r="AL11" s="11">
-        <v>4169</v>
+        <v>4086</v>
       </c>
       <c r="AM11" s="11">
-        <v>4086</v>
+        <v>4237</v>
       </c>
       <c r="AN11" s="11">
-        <v>4237</v>
+        <v>4316</v>
       </c>
       <c r="AO11" s="11">
-        <v>4316</v>
+        <v>4444</v>
       </c>
       <c r="AP11" s="11">
-        <v>4444</v>
+        <v>4507</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4507</v>
+        <v>4565</v>
       </c>
       <c r="AR11" s="11">
-        <v>4565</v>
+        <v>4758</v>
       </c>
       <c r="AS11" s="11">
-        <v>4758</v>
+        <v>4704</v>
       </c>
       <c r="AT11" s="11">
-        <v>4704</v>
+        <v>4512</v>
       </c>
       <c r="AU11" s="11">
-        <v>4512</v>
+        <v>4424</v>
       </c>
       <c r="AV11" s="11">
-        <v>4424</v>
+        <v>4381</v>
       </c>
       <c r="AW11" s="11">
-        <v>4381</v>
+        <v>4581</v>
       </c>
       <c r="AX11" s="11">
-        <v>4581</v>
+        <v>4615</v>
       </c>
       <c r="AY11" s="11">
-        <v>4615</v>
+        <v>4908</v>
       </c>
       <c r="AZ11" s="11">
-        <v>4908</v>
+        <v>5018</v>
       </c>
       <c r="BA11" s="11">
-        <v>5018</v>
+        <v>5048</v>
       </c>
       <c r="BB11" s="11">
-        <v>5048</v>
+        <v>5082</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1735,12 +1735,12 @@
       <c r="AP12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR12" s="13">
+      <c r="AQ12" s="13">
         <v>38295</v>
       </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1834,104 +1834,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>128</v>
       </c>
       <c r="X13" s="11">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="Y13" s="11">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Z13" s="11">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AA13" s="11">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="AB13" s="11">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="AC13" s="11">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AD13" s="11">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="AE13" s="11">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="AF13" s="11">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AG13" s="11">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="AH13" s="11">
+        <v>137</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>151</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>181</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>157</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>172</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>144</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>139</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>184</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>142</v>
+      </c>
+      <c r="AQ13" s="11">
         <v>140</v>
       </c>
-      <c r="AI13" s="11">
+      <c r="AR13" s="11">
+        <v>130</v>
+      </c>
+      <c r="AS13" s="11">
         <v>137</v>
       </c>
-      <c r="AJ13" s="11">
-        <v>151</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>181</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>157</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>172</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>144</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>139</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>184</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>142</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>140</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>130</v>
-      </c>
       <c r="AT13" s="11">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AU13" s="11">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="AV13" s="11">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AW13" s="11">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="AX13" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AY13" s="11">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="AZ13" s="11">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BA13" s="11">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="BB13" s="11">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>62</v>
       </c>
@@ -1993,8 +1993,8 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>0</v>
       </c>
       <c r="X14" s="13">
         <v>0</v>
@@ -2023,8 +2023,8 @@
       <c r="AF14" s="13">
         <v>0</v>
       </c>
-      <c r="AG14" s="13">
-        <v>0</v>
+      <c r="AG14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH14" s="13" t="s">
         <v>58</v>
@@ -2047,17 +2047,17 @@
       <c r="AN14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>0</v>
+      <c r="AO14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS14" s="13" t="s">
         <v>58</v>
@@ -2090,7 +2090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>64</v>
       </c>
@@ -2215,8 +2215,8 @@
       <c r="AQ15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
+      <c r="AR15" s="11">
+        <v>0</v>
       </c>
       <c r="AS15" s="11">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>66</v>
       </c>
@@ -2310,103 +2310,103 @@
         <v>0</v>
       </c>
       <c r="W16" s="15">
-        <v>0</v>
+        <v>3804</v>
       </c>
       <c r="X16" s="15">
-        <v>3804</v>
+        <v>3798</v>
       </c>
       <c r="Y16" s="15">
-        <v>3798</v>
+        <v>3818</v>
       </c>
       <c r="Z16" s="15">
-        <v>3818</v>
+        <v>3729</v>
       </c>
       <c r="AA16" s="15">
-        <v>3729</v>
+        <v>3941</v>
       </c>
       <c r="AB16" s="15">
-        <v>3941</v>
+        <v>4142</v>
       </c>
       <c r="AC16" s="15">
-        <v>4142</v>
+        <v>4302</v>
       </c>
       <c r="AD16" s="15">
-        <v>4302</v>
+        <v>4442</v>
       </c>
       <c r="AE16" s="15">
-        <v>4442</v>
+        <v>4493</v>
       </c>
       <c r="AF16" s="15">
-        <v>4493</v>
+        <v>4656</v>
       </c>
       <c r="AG16" s="15">
-        <v>4656</v>
+        <v>4553</v>
       </c>
       <c r="AH16" s="15">
-        <v>4553</v>
+        <v>4348</v>
       </c>
       <c r="AI16" s="15">
-        <v>4348</v>
+        <v>4284</v>
       </c>
       <c r="AJ16" s="15">
-        <v>4284</v>
+        <v>4309</v>
       </c>
       <c r="AK16" s="15">
-        <v>4309</v>
+        <v>4326</v>
       </c>
       <c r="AL16" s="15">
-        <v>4326</v>
+        <v>4258</v>
       </c>
       <c r="AM16" s="15">
-        <v>4258</v>
+        <v>4381</v>
       </c>
       <c r="AN16" s="15">
-        <v>4381</v>
+        <v>4455</v>
       </c>
       <c r="AO16" s="15">
-        <v>4455</v>
+        <v>4628</v>
       </c>
       <c r="AP16" s="15">
-        <v>4628</v>
+        <v>4649</v>
       </c>
       <c r="AQ16" s="15">
-        <v>4649</v>
+        <v>43000</v>
       </c>
       <c r="AR16" s="15">
-        <v>43000</v>
+        <v>4888</v>
       </c>
       <c r="AS16" s="15">
-        <v>4888</v>
+        <v>4841</v>
       </c>
       <c r="AT16" s="15">
-        <v>4841</v>
+        <v>4660</v>
       </c>
       <c r="AU16" s="15">
-        <v>4660</v>
+        <v>4629</v>
       </c>
       <c r="AV16" s="15">
-        <v>4629</v>
+        <v>4592</v>
       </c>
       <c r="AW16" s="15">
-        <v>4592</v>
+        <v>4820</v>
       </c>
       <c r="AX16" s="15">
-        <v>4820</v>
+        <v>4852</v>
       </c>
       <c r="AY16" s="15">
-        <v>4852</v>
+        <v>5118</v>
       </c>
       <c r="AZ16" s="15">
-        <v>5118</v>
+        <v>5233</v>
       </c>
       <c r="BA16" s="15">
-        <v>5233</v>
+        <v>5254</v>
       </c>
       <c r="BB16" s="15">
-        <v>5254</v>
+        <v>5253</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>67</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="BA17" s="17"/>
       <c r="BB17" s="17"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>68</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>69</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="BA19" s="17"/>
       <c r="BB19" s="17"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>70</v>
       </c>
@@ -2737,8 +2737,8 @@
       <c r="V20" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="19" t="s">
-        <v>58</v>
+      <c r="W20" s="19">
+        <v>0</v>
       </c>
       <c r="X20" s="19">
         <v>0</v>
@@ -2800,8 +2800,8 @@
       <c r="AQ20" s="19">
         <v>0</v>
       </c>
-      <c r="AR20" s="19">
-        <v>0</v>
+      <c r="AR20" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="AS20" s="19" t="s">
         <v>58</v>
@@ -2834,7 +2834,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>71</v>
       </c>
@@ -2895,103 +2895,103 @@
         <v>0</v>
       </c>
       <c r="W21" s="15">
-        <v>0</v>
+        <v>3804</v>
       </c>
       <c r="X21" s="15">
-        <v>3804</v>
+        <v>3798</v>
       </c>
       <c r="Y21" s="15">
-        <v>3798</v>
+        <v>3818</v>
       </c>
       <c r="Z21" s="15">
-        <v>3818</v>
+        <v>3729</v>
       </c>
       <c r="AA21" s="15">
-        <v>3729</v>
+        <v>3941</v>
       </c>
       <c r="AB21" s="15">
-        <v>3941</v>
+        <v>4142</v>
       </c>
       <c r="AC21" s="15">
-        <v>4142</v>
+        <v>4302</v>
       </c>
       <c r="AD21" s="15">
-        <v>4302</v>
+        <v>4442</v>
       </c>
       <c r="AE21" s="15">
-        <v>4442</v>
+        <v>4493</v>
       </c>
       <c r="AF21" s="15">
-        <v>4493</v>
+        <v>4656</v>
       </c>
       <c r="AG21" s="15">
-        <v>4656</v>
+        <v>4553</v>
       </c>
       <c r="AH21" s="15">
-        <v>4553</v>
+        <v>4348</v>
       </c>
       <c r="AI21" s="15">
-        <v>4348</v>
+        <v>4284</v>
       </c>
       <c r="AJ21" s="15">
-        <v>4284</v>
+        <v>4309</v>
       </c>
       <c r="AK21" s="15">
-        <v>4309</v>
+        <v>4326</v>
       </c>
       <c r="AL21" s="15">
-        <v>4326</v>
+        <v>4258</v>
       </c>
       <c r="AM21" s="15">
-        <v>4258</v>
+        <v>4381</v>
       </c>
       <c r="AN21" s="15">
-        <v>4381</v>
+        <v>4455</v>
       </c>
       <c r="AO21" s="15">
-        <v>4455</v>
+        <v>4628</v>
       </c>
       <c r="AP21" s="15">
-        <v>4628</v>
+        <v>4649</v>
       </c>
       <c r="AQ21" s="15">
-        <v>4649</v>
+        <v>43000</v>
       </c>
       <c r="AR21" s="15">
-        <v>43000</v>
+        <v>4888</v>
       </c>
       <c r="AS21" s="15">
-        <v>4888</v>
+        <v>4841</v>
       </c>
       <c r="AT21" s="15">
-        <v>4841</v>
+        <v>4660</v>
       </c>
       <c r="AU21" s="15">
-        <v>4660</v>
+        <v>4629</v>
       </c>
       <c r="AV21" s="15">
-        <v>4629</v>
+        <v>4592</v>
       </c>
       <c r="AW21" s="15">
-        <v>4592</v>
+        <v>4820</v>
       </c>
       <c r="AX21" s="15">
-        <v>4820</v>
+        <v>4852</v>
       </c>
       <c r="AY21" s="15">
-        <v>4852</v>
+        <v>5118</v>
       </c>
       <c r="AZ21" s="15">
-        <v>5118</v>
+        <v>5233</v>
       </c>
       <c r="BA21" s="15">
-        <v>5233</v>
+        <v>5254</v>
       </c>
       <c r="BB21" s="15">
-        <v>5254</v>
+        <v>5253</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3046,7 +3046,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3101,7 +3101,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3156,7 +3156,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>72</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3368,7 +3368,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>73</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>56</v>
       </c>
@@ -3487,104 +3487,104 @@
       <c r="V28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>58</v>
+      <c r="W28" s="11">
+        <v>3595</v>
       </c>
       <c r="X28" s="11">
-        <v>3595</v>
+        <v>3522</v>
       </c>
       <c r="Y28" s="11">
-        <v>3522</v>
+        <v>3557</v>
       </c>
       <c r="Z28" s="11">
-        <v>3557</v>
+        <v>3459</v>
       </c>
       <c r="AA28" s="11">
-        <v>3459</v>
+        <v>3621</v>
       </c>
       <c r="AB28" s="11">
-        <v>3621</v>
+        <v>3853</v>
       </c>
       <c r="AC28" s="11">
-        <v>3853</v>
+        <v>3968</v>
       </c>
       <c r="AD28" s="11">
-        <v>3968</v>
+        <v>4128</v>
       </c>
       <c r="AE28" s="11">
-        <v>4128</v>
+        <v>4193</v>
       </c>
       <c r="AF28" s="11">
-        <v>4193</v>
+        <v>4392</v>
       </c>
       <c r="AG28" s="11">
-        <v>4392</v>
+        <v>4255</v>
       </c>
       <c r="AH28" s="11">
-        <v>4255</v>
+        <v>4075</v>
       </c>
       <c r="AI28" s="11">
-        <v>4075</v>
+        <v>3992</v>
       </c>
       <c r="AJ28" s="11">
-        <v>3992</v>
+        <v>3979</v>
       </c>
       <c r="AK28" s="11">
-        <v>3979</v>
+        <v>4014</v>
       </c>
       <c r="AL28" s="11">
-        <v>4014</v>
+        <v>3946</v>
       </c>
       <c r="AM28" s="11">
-        <v>3946</v>
+        <v>4094</v>
       </c>
       <c r="AN28" s="11">
-        <v>4094</v>
+        <v>4137</v>
       </c>
       <c r="AO28" s="11">
-        <v>4137</v>
+        <v>4285</v>
       </c>
       <c r="AP28" s="11">
-        <v>4285</v>
+        <v>4441</v>
       </c>
       <c r="AQ28" s="11">
-        <v>4441</v>
+        <v>4157</v>
       </c>
       <c r="AR28" s="11">
-        <v>4157</v>
+        <v>4636</v>
       </c>
       <c r="AS28" s="11">
-        <v>4636</v>
+        <v>4549</v>
       </c>
       <c r="AT28" s="11">
-        <v>4549</v>
+        <v>4384</v>
       </c>
       <c r="AU28" s="11">
-        <v>4384</v>
+        <v>4274</v>
       </c>
       <c r="AV28" s="11">
-        <v>4274</v>
+        <v>4215</v>
       </c>
       <c r="AW28" s="11">
-        <v>4215</v>
+        <v>4309</v>
       </c>
       <c r="AX28" s="11">
-        <v>4309</v>
+        <v>4462</v>
       </c>
       <c r="AY28" s="11">
-        <v>4462</v>
+        <v>4678</v>
       </c>
       <c r="AZ28" s="11">
-        <v>4678</v>
+        <v>4803</v>
       </c>
       <c r="BA28" s="11">
-        <v>4803</v>
+        <v>4894</v>
       </c>
       <c r="BB28" s="11">
-        <v>4894</v>
+        <v>4909</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>59</v>
       </c>
@@ -3706,12 +3706,12 @@
       <c r="AP29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR29" s="13">
+      <c r="AQ29" s="13">
         <v>67233</v>
       </c>
+      <c r="AR29" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS29" s="13" t="s">
         <v>58</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>60</v>
       </c>
@@ -3805,104 +3805,104 @@
       <c r="V30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W30" s="11" t="s">
-        <v>58</v>
+      <c r="W30" s="11">
+        <v>23</v>
       </c>
       <c r="X30" s="11">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="Y30" s="11">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Z30" s="11">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="AA30" s="11">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AB30" s="11">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AC30" s="11">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="AD30" s="11">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="AE30" s="11">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="AF30" s="11">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="AG30" s="11">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="AH30" s="11">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="AI30" s="11">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="AJ30" s="11">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="AK30" s="11">
+        <v>151</v>
+      </c>
+      <c r="AL30" s="11">
         <v>105</v>
       </c>
-      <c r="AL30" s="11">
-        <v>151</v>
-      </c>
       <c r="AM30" s="11">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="AN30" s="11">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="AO30" s="11">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="AP30" s="11">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="AQ30" s="11">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="AR30" s="11">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="AS30" s="11">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="AT30" s="11">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AU30" s="11">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="AV30" s="11">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AW30" s="11">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="AX30" s="11">
-        <v>304</v>
+        <v>428</v>
       </c>
       <c r="AY30" s="11">
-        <v>428</v>
+        <v>199</v>
       </c>
       <c r="AZ30" s="11">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="BA30" s="11">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="BB30" s="11">
-        <v>219</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>62</v>
       </c>
@@ -3964,8 +3964,8 @@
       <c r="V31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="13" t="s">
-        <v>58</v>
+      <c r="W31" s="13">
+        <v>0</v>
       </c>
       <c r="X31" s="13">
         <v>0</v>
@@ -3994,8 +3994,8 @@
       <c r="AF31" s="13">
         <v>0</v>
       </c>
-      <c r="AG31" s="13">
-        <v>0</v>
+      <c r="AG31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH31" s="13" t="s">
         <v>58</v>
@@ -4018,17 +4018,17 @@
       <c r="AN31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR31" s="13">
-        <v>0</v>
+      <c r="AO31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS31" s="13" t="s">
         <v>58</v>
@@ -4061,7 +4061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>64</v>
       </c>
@@ -4186,8 +4186,8 @@
       <c r="AQ32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="11" t="s">
-        <v>58</v>
+      <c r="AR32" s="11">
+        <v>0</v>
       </c>
       <c r="AS32" s="11">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>74</v>
       </c>
@@ -4281,103 +4281,103 @@
         <v>0</v>
       </c>
       <c r="W33" s="15">
-        <v>0</v>
+        <v>3618</v>
       </c>
       <c r="X33" s="15">
-        <v>3618</v>
+        <v>3587</v>
       </c>
       <c r="Y33" s="15">
-        <v>3587</v>
+        <v>3592</v>
       </c>
       <c r="Z33" s="15">
-        <v>3592</v>
+        <v>3616</v>
       </c>
       <c r="AA33" s="15">
-        <v>3616</v>
+        <v>3699</v>
       </c>
       <c r="AB33" s="15">
-        <v>3699</v>
+        <v>3894</v>
       </c>
       <c r="AC33" s="15">
-        <v>3894</v>
+        <v>4213</v>
       </c>
       <c r="AD33" s="15">
-        <v>4213</v>
+        <v>4476</v>
       </c>
       <c r="AE33" s="15">
-        <v>4476</v>
+        <v>4451</v>
       </c>
       <c r="AF33" s="15">
-        <v>4451</v>
+        <v>4669</v>
       </c>
       <c r="AG33" s="15">
-        <v>4669</v>
+        <v>4428</v>
       </c>
       <c r="AH33" s="15">
-        <v>4428</v>
+        <v>4270</v>
       </c>
       <c r="AI33" s="15">
+        <v>4039</v>
+      </c>
+      <c r="AJ33" s="15">
+        <v>4084</v>
+      </c>
+      <c r="AK33" s="15">
+        <v>4165</v>
+      </c>
+      <c r="AL33" s="15">
+        <v>4051</v>
+      </c>
+      <c r="AM33" s="15">
+        <v>4401</v>
+      </c>
+      <c r="AN33" s="15">
         <v>4270</v>
       </c>
-      <c r="AJ33" s="15">
-        <v>4039</v>
-      </c>
-      <c r="AK33" s="15">
-        <v>4084</v>
-      </c>
-      <c r="AL33" s="15">
-        <v>4165</v>
-      </c>
-      <c r="AM33" s="15">
-        <v>4051</v>
-      </c>
-      <c r="AN33" s="15">
-        <v>4401</v>
-      </c>
       <c r="AO33" s="15">
-        <v>4270</v>
+        <v>4433</v>
       </c>
       <c r="AP33" s="15">
-        <v>4433</v>
+        <v>4563</v>
       </c>
       <c r="AQ33" s="15">
-        <v>4563</v>
+        <v>71580</v>
       </c>
       <c r="AR33" s="15">
-        <v>71580</v>
+        <v>4941</v>
       </c>
       <c r="AS33" s="15">
-        <v>4941</v>
+        <v>4567</v>
       </c>
       <c r="AT33" s="15">
-        <v>4567</v>
+        <v>4397</v>
       </c>
       <c r="AU33" s="15">
-        <v>4397</v>
+        <v>4391</v>
       </c>
       <c r="AV33" s="15">
-        <v>4391</v>
+        <v>4255</v>
       </c>
       <c r="AW33" s="15">
-        <v>4255</v>
+        <v>4613</v>
       </c>
       <c r="AX33" s="15">
-        <v>4613</v>
+        <v>4890</v>
       </c>
       <c r="AY33" s="15">
-        <v>4890</v>
+        <v>4877</v>
       </c>
       <c r="AZ33" s="15">
-        <v>4877</v>
+        <v>5148</v>
       </c>
       <c r="BA33" s="15">
-        <v>5148</v>
+        <v>5113</v>
       </c>
       <c r="BB33" s="15">
-        <v>5113</v>
+        <v>5388</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>75</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="BA34" s="17"/>
       <c r="BB34" s="17"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>76</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>69</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="BA36" s="17"/>
       <c r="BB36" s="17"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>70</v>
       </c>
@@ -4708,8 +4708,8 @@
       <c r="V37" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="19" t="s">
-        <v>58</v>
+      <c r="W37" s="19">
+        <v>0</v>
       </c>
       <c r="X37" s="19">
         <v>0</v>
@@ -4771,8 +4771,8 @@
       <c r="AQ37" s="19">
         <v>0</v>
       </c>
-      <c r="AR37" s="19">
-        <v>0</v>
+      <c r="AR37" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="AS37" s="19" t="s">
         <v>58</v>
@@ -4805,7 +4805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>77</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="BA38" s="17"/>
       <c r="BB38" s="17"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>78</v>
       </c>
@@ -4922,8 +4922,8 @@
       <c r="V39" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="19" t="s">
-        <v>58</v>
+      <c r="W39" s="19">
+        <v>0</v>
       </c>
       <c r="X39" s="19">
         <v>0</v>
@@ -4985,8 +4985,8 @@
       <c r="AQ39" s="19">
         <v>0</v>
       </c>
-      <c r="AR39" s="19">
-        <v>0</v>
+      <c r="AR39" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="AS39" s="19" t="s">
         <v>58</v>
@@ -5019,7 +5019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>71</v>
       </c>
@@ -5080,103 +5080,103 @@
         <v>0</v>
       </c>
       <c r="W40" s="15">
-        <v>0</v>
+        <v>3618</v>
       </c>
       <c r="X40" s="15">
-        <v>3618</v>
+        <v>3587</v>
       </c>
       <c r="Y40" s="15">
-        <v>3587</v>
+        <v>3592</v>
       </c>
       <c r="Z40" s="15">
-        <v>3592</v>
+        <v>3616</v>
       </c>
       <c r="AA40" s="15">
-        <v>3616</v>
+        <v>3699</v>
       </c>
       <c r="AB40" s="15">
-        <v>3699</v>
+        <v>3894</v>
       </c>
       <c r="AC40" s="15">
-        <v>3894</v>
+        <v>4213</v>
       </c>
       <c r="AD40" s="15">
-        <v>4213</v>
+        <v>4476</v>
       </c>
       <c r="AE40" s="15">
-        <v>4476</v>
+        <v>4451</v>
       </c>
       <c r="AF40" s="15">
-        <v>4451</v>
+        <v>4669</v>
       </c>
       <c r="AG40" s="15">
-        <v>4669</v>
+        <v>4428</v>
       </c>
       <c r="AH40" s="15">
-        <v>4428</v>
+        <v>4270</v>
       </c>
       <c r="AI40" s="15">
+        <v>4039</v>
+      </c>
+      <c r="AJ40" s="15">
+        <v>4084</v>
+      </c>
+      <c r="AK40" s="15">
+        <v>4165</v>
+      </c>
+      <c r="AL40" s="15">
+        <v>4051</v>
+      </c>
+      <c r="AM40" s="15">
+        <v>4401</v>
+      </c>
+      <c r="AN40" s="15">
         <v>4270</v>
       </c>
-      <c r="AJ40" s="15">
-        <v>4039</v>
-      </c>
-      <c r="AK40" s="15">
-        <v>4084</v>
-      </c>
-      <c r="AL40" s="15">
-        <v>4165</v>
-      </c>
-      <c r="AM40" s="15">
-        <v>4051</v>
-      </c>
-      <c r="AN40" s="15">
-        <v>4401</v>
-      </c>
       <c r="AO40" s="15">
-        <v>4270</v>
+        <v>4433</v>
       </c>
       <c r="AP40" s="15">
-        <v>4433</v>
+        <v>4563</v>
       </c>
       <c r="AQ40" s="15">
-        <v>4563</v>
+        <v>71580</v>
       </c>
       <c r="AR40" s="15">
-        <v>71580</v>
+        <v>4941</v>
       </c>
       <c r="AS40" s="15">
-        <v>4941</v>
+        <v>4567</v>
       </c>
       <c r="AT40" s="15">
-        <v>4567</v>
+        <v>4397</v>
       </c>
       <c r="AU40" s="15">
-        <v>4397</v>
+        <v>4391</v>
       </c>
       <c r="AV40" s="15">
-        <v>4391</v>
+        <v>4255</v>
       </c>
       <c r="AW40" s="15">
-        <v>4255</v>
+        <v>4613</v>
       </c>
       <c r="AX40" s="15">
-        <v>4613</v>
+        <v>4890</v>
       </c>
       <c r="AY40" s="15">
-        <v>4890</v>
+        <v>4877</v>
       </c>
       <c r="AZ40" s="15">
-        <v>4877</v>
+        <v>5148</v>
       </c>
       <c r="BA40" s="15">
-        <v>5148</v>
+        <v>5113</v>
       </c>
       <c r="BB40" s="15">
-        <v>5113</v>
+        <v>5388</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5231,7 +5231,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5286,7 +5286,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5341,7 +5341,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>79</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5553,7 +5553,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>80</v>
       </c>
@@ -5610,7 +5610,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>56</v>
       </c>
@@ -5672,104 +5672,104 @@
       <c r="V47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
+      <c r="W47" s="11">
+        <v>114952</v>
       </c>
       <c r="X47" s="11">
-        <v>114952</v>
+        <v>122242</v>
       </c>
       <c r="Y47" s="11">
-        <v>122242</v>
+        <v>130542</v>
       </c>
       <c r="Z47" s="11">
-        <v>130542</v>
+        <v>132207</v>
       </c>
       <c r="AA47" s="11">
-        <v>132207</v>
+        <v>161205</v>
       </c>
       <c r="AB47" s="11">
-        <v>161205</v>
+        <v>184256</v>
       </c>
       <c r="AC47" s="11">
-        <v>184256</v>
+        <v>190609</v>
       </c>
       <c r="AD47" s="11">
-        <v>190609</v>
+        <v>195537</v>
       </c>
       <c r="AE47" s="11">
-        <v>195537</v>
+        <v>196877</v>
       </c>
       <c r="AF47" s="11">
-        <v>196877</v>
+        <v>206654</v>
       </c>
       <c r="AG47" s="11">
-        <v>206654</v>
+        <v>209143</v>
       </c>
       <c r="AH47" s="11">
-        <v>209143</v>
+        <v>202448</v>
       </c>
       <c r="AI47" s="11">
-        <v>202448</v>
+        <v>204814</v>
       </c>
       <c r="AJ47" s="11">
-        <v>204814</v>
+        <v>211610</v>
       </c>
       <c r="AK47" s="11">
-        <v>211610</v>
+        <v>263644</v>
       </c>
       <c r="AL47" s="11">
-        <v>263644</v>
+        <v>257247</v>
       </c>
       <c r="AM47" s="11">
-        <v>257247</v>
+        <v>268641</v>
       </c>
       <c r="AN47" s="11">
-        <v>268641</v>
+        <v>273573</v>
       </c>
       <c r="AO47" s="11">
-        <v>273573</v>
+        <v>285215</v>
       </c>
       <c r="AP47" s="11">
-        <v>285215</v>
+        <v>296819</v>
       </c>
       <c r="AQ47" s="11">
-        <v>296819</v>
+        <v>274514</v>
       </c>
       <c r="AR47" s="11">
-        <v>274514</v>
+        <v>296704</v>
       </c>
       <c r="AS47" s="11">
-        <v>296704</v>
+        <v>291136</v>
       </c>
       <c r="AT47" s="11">
-        <v>291136</v>
+        <v>526080</v>
       </c>
       <c r="AU47" s="11">
-        <v>526080</v>
+        <v>512880</v>
       </c>
       <c r="AV47" s="11">
-        <v>512880</v>
+        <v>505800</v>
       </c>
       <c r="AW47" s="11">
-        <v>505800</v>
+        <v>517080</v>
       </c>
       <c r="AX47" s="11">
-        <v>517080</v>
+        <v>535440</v>
       </c>
       <c r="AY47" s="11">
-        <v>535440</v>
+        <v>561360</v>
       </c>
       <c r="AZ47" s="11">
-        <v>561360</v>
+        <v>576360</v>
       </c>
       <c r="BA47" s="11">
-        <v>576360</v>
+        <v>587280</v>
       </c>
       <c r="BB47" s="11">
-        <v>587280</v>
+        <v>589080</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>59</v>
       </c>
@@ -5891,12 +5891,12 @@
       <c r="AP48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR48" s="13">
+      <c r="AQ48" s="13">
         <v>81691</v>
       </c>
+      <c r="AR48" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS48" s="13" t="s">
         <v>58</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>60</v>
       </c>
@@ -5990,104 +5990,104 @@
       <c r="V49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="11" t="s">
-        <v>58</v>
+      <c r="W49" s="11">
+        <v>1269</v>
       </c>
       <c r="X49" s="11">
-        <v>1269</v>
+        <v>4623</v>
       </c>
       <c r="Y49" s="11">
-        <v>4623</v>
+        <v>2040</v>
       </c>
       <c r="Z49" s="11">
-        <v>2040</v>
+        <v>13208</v>
       </c>
       <c r="AA49" s="11">
-        <v>13208</v>
+        <v>6392</v>
       </c>
       <c r="AB49" s="11">
-        <v>6392</v>
+        <v>2337</v>
       </c>
       <c r="AC49" s="11">
-        <v>2337</v>
+        <v>13445</v>
       </c>
       <c r="AD49" s="11">
-        <v>13445</v>
+        <v>28191</v>
       </c>
       <c r="AE49" s="11">
-        <v>28191</v>
+        <v>20247</v>
       </c>
       <c r="AF49" s="11">
-        <v>20247</v>
+        <v>22148</v>
       </c>
       <c r="AG49" s="11">
-        <v>22148</v>
+        <v>13447</v>
       </c>
       <c r="AH49" s="11">
-        <v>13447</v>
+        <v>14990</v>
       </c>
       <c r="AI49" s="11">
-        <v>14990</v>
+        <v>3066</v>
       </c>
       <c r="AJ49" s="11">
-        <v>3066</v>
+        <v>8808</v>
       </c>
       <c r="AK49" s="11">
-        <v>8808</v>
+        <v>13304</v>
       </c>
       <c r="AL49" s="11">
-        <v>13304</v>
+        <v>8580</v>
       </c>
       <c r="AM49" s="11">
-        <v>8580</v>
+        <v>29052</v>
       </c>
       <c r="AN49" s="11">
-        <v>29052</v>
+        <v>10663</v>
       </c>
       <c r="AO49" s="11">
-        <v>10663</v>
+        <v>12075</v>
       </c>
       <c r="AP49" s="11">
-        <v>12075</v>
+        <v>9376</v>
       </c>
       <c r="AQ49" s="11">
-        <v>9376</v>
+        <v>18227</v>
       </c>
       <c r="AR49" s="11">
-        <v>18227</v>
+        <v>28511</v>
       </c>
       <c r="AS49" s="11">
-        <v>28511</v>
+        <v>1171</v>
       </c>
       <c r="AT49" s="11">
-        <v>1171</v>
+        <v>1366</v>
       </c>
       <c r="AU49" s="11">
-        <v>1366</v>
+        <v>15407</v>
       </c>
       <c r="AV49" s="11">
-        <v>15407</v>
+        <v>1993</v>
       </c>
       <c r="AW49" s="11">
-        <v>1993</v>
+        <v>42481</v>
       </c>
       <c r="AX49" s="11">
-        <v>42481</v>
+        <v>45582</v>
       </c>
       <c r="AY49" s="11">
-        <v>45582</v>
+        <v>22205</v>
       </c>
       <c r="AZ49" s="11">
-        <v>22205</v>
+        <v>43699</v>
       </c>
       <c r="BA49" s="11">
-        <v>43699</v>
+        <v>23782</v>
       </c>
       <c r="BB49" s="11">
-        <v>23782</v>
+        <v>59382</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>62</v>
       </c>
@@ -6149,72 +6149,72 @@
       <c r="V50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="13" t="s">
-        <v>58</v>
+      <c r="W50" s="13">
+        <v>2232</v>
       </c>
       <c r="X50" s="13">
-        <v>2232</v>
+        <v>3072</v>
       </c>
       <c r="Y50" s="13">
-        <v>3072</v>
+        <v>3360</v>
       </c>
       <c r="Z50" s="13">
-        <v>3360</v>
+        <v>528</v>
       </c>
       <c r="AA50" s="13">
-        <v>528</v>
+        <v>3384</v>
       </c>
       <c r="AB50" s="13">
-        <v>3384</v>
+        <v>3648</v>
       </c>
       <c r="AC50" s="13">
-        <v>3648</v>
+        <v>-1488</v>
       </c>
       <c r="AD50" s="13">
-        <v>-1488</v>
+        <v>-4416</v>
       </c>
       <c r="AE50" s="13">
-        <v>-4416</v>
+        <v>-3312</v>
       </c>
       <c r="AF50" s="13">
-        <v>-3312</v>
+        <v>13296</v>
       </c>
       <c r="AG50" s="13">
-        <v>13296</v>
+        <v>-792</v>
       </c>
       <c r="AH50" s="13">
-        <v>-792</v>
+        <v>-1392</v>
       </c>
       <c r="AI50" s="13">
-        <v>-1392</v>
+        <v>2496</v>
       </c>
       <c r="AJ50" s="13">
-        <v>2496</v>
+        <v>1824</v>
       </c>
       <c r="AK50" s="13">
-        <v>1824</v>
+        <v>144</v>
       </c>
       <c r="AL50" s="13">
+        <v>1608</v>
+      </c>
+      <c r="AM50" s="13">
+        <v>-3912</v>
+      </c>
+      <c r="AN50" s="13">
         <v>144</v>
-      </c>
-      <c r="AM50" s="13">
-        <v>1608</v>
-      </c>
-      <c r="AN50" s="13">
-        <v>-3912</v>
       </c>
       <c r="AO50" s="13">
         <v>144</v>
       </c>
       <c r="AP50" s="13">
-        <v>144</v>
+        <v>408</v>
       </c>
       <c r="AQ50" s="13">
-        <v>408</v>
-      </c>
-      <c r="AR50" s="13">
         <v>17996</v>
       </c>
+      <c r="AR50" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS50" s="13" t="s">
         <v>58</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>64</v>
       </c>
@@ -6371,41 +6371,41 @@
       <c r="AQ51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR51" s="11" t="s">
-        <v>58</v>
+      <c r="AR51" s="11">
+        <v>10629</v>
       </c>
       <c r="AS51" s="11">
-        <v>10629</v>
+        <v>17893</v>
       </c>
       <c r="AT51" s="11">
-        <v>17893</v>
+        <v>19425</v>
       </c>
       <c r="AU51" s="11">
-        <v>19425</v>
+        <v>201</v>
       </c>
       <c r="AV51" s="11">
-        <v>201</v>
+        <v>1315</v>
       </c>
       <c r="AW51" s="11">
-        <v>1315</v>
+        <v>-21454</v>
       </c>
       <c r="AX51" s="11">
-        <v>-21454</v>
+        <v>15567</v>
       </c>
       <c r="AY51" s="11">
-        <v>15567</v>
+        <v>14518</v>
       </c>
       <c r="AZ51" s="11">
-        <v>14518</v>
+        <v>22714</v>
       </c>
       <c r="BA51" s="11">
-        <v>22714</v>
+        <v>25403</v>
       </c>
       <c r="BB51" s="11">
-        <v>25403</v>
+        <v>25032</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>74</v>
       </c>
@@ -6466,103 +6466,103 @@
         <v>0</v>
       </c>
       <c r="W52" s="15">
-        <v>0</v>
+        <v>118453</v>
       </c>
       <c r="X52" s="15">
-        <v>118453</v>
+        <v>129937</v>
       </c>
       <c r="Y52" s="15">
-        <v>129937</v>
+        <v>135942</v>
       </c>
       <c r="Z52" s="15">
-        <v>135942</v>
+        <v>145943</v>
       </c>
       <c r="AA52" s="15">
-        <v>145943</v>
+        <v>170981</v>
       </c>
       <c r="AB52" s="15">
-        <v>170981</v>
+        <v>190241</v>
       </c>
       <c r="AC52" s="15">
-        <v>190241</v>
+        <v>202566</v>
       </c>
       <c r="AD52" s="15">
-        <v>202566</v>
+        <v>219312</v>
       </c>
       <c r="AE52" s="15">
-        <v>219312</v>
+        <v>213812</v>
       </c>
       <c r="AF52" s="15">
-        <v>213812</v>
+        <v>242098</v>
       </c>
       <c r="AG52" s="15">
-        <v>242098</v>
+        <v>221798</v>
       </c>
       <c r="AH52" s="15">
-        <v>221798</v>
+        <v>216046</v>
       </c>
       <c r="AI52" s="15">
-        <v>216046</v>
+        <v>210376</v>
       </c>
       <c r="AJ52" s="15">
-        <v>210376</v>
+        <v>222242</v>
       </c>
       <c r="AK52" s="15">
-        <v>222242</v>
+        <v>277092</v>
       </c>
       <c r="AL52" s="15">
-        <v>277092</v>
+        <v>267435</v>
       </c>
       <c r="AM52" s="15">
-        <v>267435</v>
+        <v>293781</v>
       </c>
       <c r="AN52" s="15">
-        <v>293781</v>
+        <v>284380</v>
       </c>
       <c r="AO52" s="15">
-        <v>284380</v>
+        <v>297434</v>
       </c>
       <c r="AP52" s="15">
-        <v>297434</v>
+        <v>306603</v>
       </c>
       <c r="AQ52" s="15">
-        <v>306603</v>
+        <v>392428</v>
       </c>
       <c r="AR52" s="15">
-        <v>392428</v>
+        <v>335844</v>
       </c>
       <c r="AS52" s="15">
-        <v>335844</v>
+        <v>310200</v>
       </c>
       <c r="AT52" s="15">
-        <v>310200</v>
+        <v>546871</v>
       </c>
       <c r="AU52" s="15">
-        <v>546871</v>
+        <v>528488</v>
       </c>
       <c r="AV52" s="15">
-        <v>528488</v>
+        <v>509108</v>
       </c>
       <c r="AW52" s="15">
-        <v>509108</v>
+        <v>538107</v>
       </c>
       <c r="AX52" s="15">
-        <v>538107</v>
+        <v>596589</v>
       </c>
       <c r="AY52" s="15">
-        <v>596589</v>
+        <v>598083</v>
       </c>
       <c r="AZ52" s="15">
-        <v>598083</v>
+        <v>642773</v>
       </c>
       <c r="BA52" s="15">
-        <v>642773</v>
+        <v>636465</v>
       </c>
       <c r="BB52" s="15">
-        <v>636465</v>
+        <v>673494</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>82</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="BA53" s="17"/>
       <c r="BB53" s="17"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>76</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>83</v>
       </c>
@@ -6833,7 +6833,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>84</v>
       </c>
@@ -6958,41 +6958,41 @@
       <c r="AQ56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR56" s="11" t="s">
-        <v>58</v>
+      <c r="AR56" s="11">
+        <v>313919</v>
       </c>
       <c r="AS56" s="11">
+        <v>520610</v>
+      </c>
+      <c r="AT56" s="11">
         <v>313919</v>
       </c>
-      <c r="AT56" s="11">
-        <v>520610</v>
-      </c>
       <c r="AU56" s="11">
-        <v>313919</v>
+        <v>487565</v>
       </c>
       <c r="AV56" s="11">
-        <v>487565</v>
+        <v>553851</v>
       </c>
       <c r="AW56" s="11">
-        <v>553851</v>
+        <v>632973</v>
       </c>
       <c r="AX56" s="11">
-        <v>632973</v>
+        <v>507101</v>
       </c>
       <c r="AY56" s="11">
-        <v>507101</v>
+        <v>505466</v>
       </c>
       <c r="AZ56" s="11">
-        <v>505466</v>
+        <v>502446</v>
       </c>
       <c r="BA56" s="11">
-        <v>502446</v>
+        <v>504785</v>
       </c>
       <c r="BB56" s="11">
-        <v>504785</v>
+        <v>572456</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>85</v>
       </c>
@@ -7117,41 +7117,41 @@
       <c r="AQ57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR57" s="13" t="s">
-        <v>58</v>
+      <c r="AR57" s="13">
+        <v>-297308</v>
       </c>
       <c r="AS57" s="13">
-        <v>-297308</v>
+        <v>-519550</v>
       </c>
       <c r="AT57" s="13">
-        <v>-519550</v>
+        <v>-254401</v>
       </c>
       <c r="AU57" s="13">
-        <v>-254401</v>
+        <v>-481687</v>
       </c>
       <c r="AV57" s="13">
-        <v>-481687</v>
+        <v>-501876</v>
       </c>
       <c r="AW57" s="13">
-        <v>-501876</v>
+        <v>-617799</v>
       </c>
       <c r="AX57" s="13">
-        <v>-617799</v>
+        <v>-461036</v>
       </c>
       <c r="AY57" s="13">
-        <v>-461036</v>
+        <v>-462756</v>
       </c>
       <c r="AZ57" s="13">
-        <v>-462756</v>
+        <v>-473567</v>
       </c>
       <c r="BA57" s="13">
-        <v>-473567</v>
+        <v>-485156</v>
       </c>
       <c r="BB57" s="13">
-        <v>-485156</v>
+        <v>-510333</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>86</v>
       </c>
@@ -7276,41 +7276,41 @@
       <c r="AQ58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR58" s="11" t="s">
-        <v>58</v>
+      <c r="AR58" s="11">
+        <v>20192</v>
       </c>
       <c r="AS58" s="11">
-        <v>20192</v>
+        <v>17883</v>
       </c>
       <c r="AT58" s="11">
-        <v>17883</v>
+        <v>18526</v>
       </c>
       <c r="AU58" s="11">
-        <v>18526</v>
+        <v>-3187</v>
       </c>
       <c r="AV58" s="11">
-        <v>-3187</v>
+        <v>-1243</v>
       </c>
       <c r="AW58" s="11">
-        <v>-1243</v>
+        <v>2330</v>
       </c>
       <c r="AX58" s="11">
-        <v>2330</v>
+        <v>1758</v>
       </c>
       <c r="AY58" s="11">
-        <v>1758</v>
+        <v>89499</v>
       </c>
       <c r="AZ58" s="11">
-        <v>89499</v>
+        <v>3867</v>
       </c>
       <c r="BA58" s="11">
-        <v>3867</v>
+        <v>60643</v>
       </c>
       <c r="BB58" s="11">
-        <v>60643</v>
+        <v>20153</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>87</v>
       </c>
@@ -7367,7 +7367,7 @@
       <c r="BA59" s="17"/>
       <c r="BB59" s="17"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>70</v>
       </c>
@@ -7429,8 +7429,8 @@
       <c r="V60" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="19" t="s">
-        <v>58</v>
+      <c r="W60" s="19">
+        <v>0</v>
       </c>
       <c r="X60" s="19">
         <v>0</v>
@@ -7492,8 +7492,8 @@
       <c r="AQ60" s="19">
         <v>0</v>
       </c>
-      <c r="AR60" s="19">
-        <v>0</v>
+      <c r="AR60" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="AS60" s="19" t="s">
         <v>58</v>
@@ -7526,7 +7526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>88</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="BA61" s="17"/>
       <c r="BB61" s="17"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
         <v>78</v>
       </c>
@@ -7645,8 +7645,8 @@
       <c r="V62" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="19" t="s">
-        <v>58</v>
+      <c r="W62" s="19">
+        <v>0</v>
       </c>
       <c r="X62" s="19">
         <v>0</v>
@@ -7708,8 +7708,8 @@
       <c r="AQ62" s="19">
         <v>0</v>
       </c>
-      <c r="AR62" s="19">
-        <v>0</v>
+      <c r="AR62" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="AS62" s="19" t="s">
         <v>58</v>
@@ -7742,7 +7742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>89</v>
       </c>
@@ -7799,7 +7799,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>90</v>
       </c>
@@ -7861,8 +7861,8 @@
       <c r="V64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="11" t="s">
-        <v>58</v>
+      <c r="W64" s="11">
+        <v>0</v>
       </c>
       <c r="X64" s="11">
         <v>0</v>
@@ -7924,8 +7924,8 @@
       <c r="AQ64" s="11">
         <v>0</v>
       </c>
-      <c r="AR64" s="11">
-        <v>0</v>
+      <c r="AR64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS64" s="11" t="s">
         <v>58</v>
@@ -7958,7 +7958,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>71</v>
       </c>
@@ -8019,103 +8019,103 @@
         <v>0</v>
       </c>
       <c r="W65" s="15">
-        <v>0</v>
+        <v>118453</v>
       </c>
       <c r="X65" s="15">
-        <v>118453</v>
+        <v>129937</v>
       </c>
       <c r="Y65" s="15">
-        <v>129937</v>
+        <v>135942</v>
       </c>
       <c r="Z65" s="15">
-        <v>135942</v>
+        <v>145943</v>
       </c>
       <c r="AA65" s="15">
-        <v>145943</v>
+        <v>170981</v>
       </c>
       <c r="AB65" s="15">
-        <v>170981</v>
+        <v>190241</v>
       </c>
       <c r="AC65" s="15">
-        <v>190241</v>
+        <v>202566</v>
       </c>
       <c r="AD65" s="15">
-        <v>202566</v>
+        <v>219312</v>
       </c>
       <c r="AE65" s="15">
-        <v>219312</v>
+        <v>213812</v>
       </c>
       <c r="AF65" s="15">
-        <v>213812</v>
+        <v>242098</v>
       </c>
       <c r="AG65" s="15">
-        <v>242098</v>
+        <v>221798</v>
       </c>
       <c r="AH65" s="15">
-        <v>221798</v>
+        <v>216046</v>
       </c>
       <c r="AI65" s="15">
-        <v>216046</v>
+        <v>210376</v>
       </c>
       <c r="AJ65" s="15">
-        <v>210376</v>
+        <v>222242</v>
       </c>
       <c r="AK65" s="15">
-        <v>222242</v>
+        <v>277092</v>
       </c>
       <c r="AL65" s="15">
-        <v>277092</v>
+        <v>267435</v>
       </c>
       <c r="AM65" s="15">
-        <v>267435</v>
+        <v>293781</v>
       </c>
       <c r="AN65" s="15">
-        <v>293781</v>
+        <v>284380</v>
       </c>
       <c r="AO65" s="15">
-        <v>284380</v>
+        <v>297434</v>
       </c>
       <c r="AP65" s="15">
-        <v>297434</v>
+        <v>306603</v>
       </c>
       <c r="AQ65" s="15">
-        <v>306603</v>
+        <v>392428</v>
       </c>
       <c r="AR65" s="15">
-        <v>392428</v>
+        <v>372647</v>
       </c>
       <c r="AS65" s="15">
-        <v>372647</v>
+        <v>329143</v>
       </c>
       <c r="AT65" s="15">
-        <v>329143</v>
+        <v>624915</v>
       </c>
       <c r="AU65" s="15">
-        <v>624915</v>
+        <v>531179</v>
       </c>
       <c r="AV65" s="15">
-        <v>531179</v>
+        <v>559840</v>
       </c>
       <c r="AW65" s="15">
-        <v>559840</v>
+        <v>555611</v>
       </c>
       <c r="AX65" s="15">
-        <v>555611</v>
+        <v>644412</v>
       </c>
       <c r="AY65" s="15">
-        <v>644412</v>
+        <v>730292</v>
       </c>
       <c r="AZ65" s="15">
-        <v>730292</v>
+        <v>675519</v>
       </c>
       <c r="BA65" s="15">
-        <v>675519</v>
+        <v>716737</v>
       </c>
       <c r="BB65" s="15">
-        <v>716737</v>
+        <v>755770</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8170,7 +8170,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8225,7 +8225,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -8280,7 +8280,7 @@
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
     </row>
-    <row r="69" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>91</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -8492,7 +8492,7 @@
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>92</v>
       </c>
@@ -8549,7 +8549,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>56</v>
       </c>
@@ -8611,77 +8611,77 @@
       <c r="V72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W72" s="11" t="s">
-        <v>58</v>
+      <c r="W72" s="11">
+        <v>31975522</v>
       </c>
       <c r="X72" s="11">
-        <v>31975522</v>
+        <v>34708120</v>
       </c>
       <c r="Y72" s="11">
-        <v>34708120</v>
+        <v>36700028</v>
       </c>
       <c r="Z72" s="11">
-        <v>36700028</v>
+        <v>38221162</v>
       </c>
       <c r="AA72" s="11">
-        <v>38221162</v>
+        <v>44519470</v>
       </c>
       <c r="AB72" s="11">
-        <v>44519470</v>
+        <v>47821438</v>
       </c>
       <c r="AC72" s="11">
-        <v>47821438</v>
+        <v>48036542</v>
       </c>
       <c r="AD72" s="11">
-        <v>48036542</v>
+        <v>47368459</v>
       </c>
       <c r="AE72" s="11">
-        <v>47368459</v>
+        <v>46953732</v>
       </c>
       <c r="AF72" s="11">
-        <v>46953732</v>
+        <v>47052368</v>
       </c>
       <c r="AG72" s="11">
-        <v>47052368</v>
+        <v>49152291</v>
       </c>
       <c r="AH72" s="11">
-        <v>49152291</v>
+        <v>49680491</v>
       </c>
       <c r="AI72" s="11">
-        <v>49680491</v>
+        <v>51306112</v>
       </c>
       <c r="AJ72" s="11">
-        <v>51306112</v>
+        <v>53181704</v>
       </c>
       <c r="AK72" s="11">
-        <v>53181704</v>
+        <v>65681116</v>
       </c>
       <c r="AL72" s="11">
-        <v>65681116</v>
+        <v>65191840</v>
       </c>
       <c r="AM72" s="11">
-        <v>65191840</v>
+        <v>65618222</v>
       </c>
       <c r="AN72" s="11">
-        <v>65618222</v>
+        <v>66128354</v>
       </c>
       <c r="AO72" s="11">
-        <v>66128354</v>
+        <v>66561260</v>
       </c>
       <c r="AP72" s="11">
-        <v>66561260</v>
+        <v>66836073</v>
       </c>
       <c r="AQ72" s="11">
-        <v>66836073</v>
+        <v>66036565</v>
       </c>
       <c r="AR72" s="11">
-        <v>66036565</v>
+        <v>64000000</v>
       </c>
       <c r="AS72" s="11">
         <v>64000000</v>
       </c>
       <c r="AT72" s="11">
-        <v>64000000</v>
+        <v>120000000</v>
       </c>
       <c r="AU72" s="11">
         <v>120000000</v>
@@ -8708,7 +8708,7 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>59</v>
       </c>
@@ -8830,12 +8830,12 @@
       <c r="AP73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR73" s="13">
+      <c r="AQ73" s="13">
         <v>1215043</v>
       </c>
+      <c r="AR73" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS73" s="13" t="s">
         <v>58</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>60</v>
       </c>
@@ -8929,101 +8929,101 @@
       <c r="V74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="11" t="s">
-        <v>58</v>
+      <c r="W74" s="11">
+        <v>55173913</v>
       </c>
       <c r="X74" s="11">
-        <v>55173913</v>
+        <v>71123077</v>
       </c>
       <c r="Y74" s="11">
-        <v>71123077</v>
+        <v>58285714</v>
       </c>
       <c r="Z74" s="11">
-        <v>58285714</v>
+        <v>84127389</v>
       </c>
       <c r="AA74" s="11">
-        <v>84127389</v>
+        <v>81948718</v>
       </c>
       <c r="AB74" s="11">
-        <v>81948718</v>
+        <v>57000000</v>
       </c>
       <c r="AC74" s="11">
-        <v>57000000</v>
+        <v>54877551</v>
       </c>
       <c r="AD74" s="11">
-        <v>54877551</v>
+        <v>81008621</v>
       </c>
       <c r="AE74" s="11">
-        <v>81008621</v>
+        <v>78476744</v>
       </c>
       <c r="AF74" s="11">
-        <v>78476744</v>
+        <v>79956679</v>
       </c>
       <c r="AG74" s="11">
-        <v>79956679</v>
+        <v>77728324</v>
       </c>
       <c r="AH74" s="11">
-        <v>77728324</v>
+        <v>76871795</v>
       </c>
       <c r="AI74" s="11">
-        <v>76871795</v>
+        <v>65234043</v>
       </c>
       <c r="AJ74" s="11">
-        <v>65234043</v>
+        <v>83885714</v>
       </c>
       <c r="AK74" s="11">
-        <v>83885714</v>
+        <v>88105960</v>
       </c>
       <c r="AL74" s="11">
-        <v>88105960</v>
+        <v>81714286</v>
       </c>
       <c r="AM74" s="11">
-        <v>81714286</v>
+        <v>94631922</v>
       </c>
       <c r="AN74" s="11">
-        <v>94631922</v>
+        <v>80172932</v>
       </c>
       <c r="AO74" s="11">
-        <v>80172932</v>
+        <v>81587838</v>
       </c>
       <c r="AP74" s="11">
-        <v>81587838</v>
+        <v>76852459</v>
       </c>
       <c r="AQ74" s="11">
-        <v>76852459</v>
+        <v>95931579</v>
       </c>
       <c r="AR74" s="11">
-        <v>95931579</v>
+        <v>93478689</v>
       </c>
       <c r="AS74" s="11">
-        <v>93478689</v>
+        <v>65055556</v>
       </c>
       <c r="AT74" s="11">
-        <v>65055556</v>
+        <v>105076923</v>
       </c>
       <c r="AU74" s="11">
-        <v>105076923</v>
+        <v>131683761</v>
       </c>
       <c r="AV74" s="11">
-        <v>131683761</v>
+        <v>49825000</v>
       </c>
       <c r="AW74" s="11">
-        <v>49825000</v>
+        <v>139740132</v>
       </c>
       <c r="AX74" s="11">
-        <v>139740132</v>
+        <v>106500000</v>
       </c>
       <c r="AY74" s="11">
-        <v>106500000</v>
+        <v>111582915</v>
       </c>
       <c r="AZ74" s="11">
-        <v>111582915</v>
+        <v>126663768</v>
       </c>
       <c r="BA74" s="11">
-        <v>126663768</v>
+        <v>108593607</v>
       </c>
       <c r="BB74" s="11">
-        <v>108593607</v>
+        <v>123970772</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/zeraat/zegoldasht/product/monthly_seprated.xlsx
+++ b/database/industries/zeraat/zegoldasht/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="95">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3390,107 +3390,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>3676</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>3676</v>
+        <v>3616</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>3616</v>
+        <v>3644</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>3644</v>
+        <v>3550</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>3550</v>
+        <v>3722</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>3722</v>
+        <v>3949</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>3949</v>
+        <v>4119</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>4119</v>
+        <v>4278</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>4278</v>
+        <v>4372</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>4372</v>
+        <v>4539</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>4539</v>
+        <v>4413</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>4413</v>
+        <v>4211</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>4211</v>
+        <v>4133</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>4133</v>
+        <v>4128</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>4128</v>
+        <v>4169</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>4169</v>
+        <v>4086</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>4086</v>
+        <v>4237</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>4237</v>
+        <v>4316</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>4316</v>
+        <v>4444</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>4444</v>
+        <v>4507</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>4507</v>
+        <v>4565</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>4565</v>
+        <v>4758</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>4758</v>
+        <v>4704</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>4704</v>
+        <v>4512</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>4512</v>
+        <v>4424</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>4424</v>
+        <v>4381</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>4381</v>
+        <v>4581</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>4581</v>
+        <v>4615</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>4615</v>
+        <v>4908</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>4908</v>
+        <v>5018</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>5018</v>
+        <v>5048</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>5048</v>
+        <v>5082</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>5082</v>
+        <v>5116</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>5116</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,12 +3609,12 @@
       <c r="AN12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP12" s="16" t="n">
+      <c r="AO12" s="16" t="n">
         <v>38295</v>
       </c>
+      <c r="AP12" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3648,8 +3648,8 @@
       <c r="BA12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BB12" s="16" t="s">
-        <v>58</v>
+      <c r="BB12" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,107 +3708,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>128</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="AF13" s="13" t="n">
+        <v>137</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>181</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>157</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>172</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>144</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>139</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>184</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>142</v>
+      </c>
+      <c r="AO13" s="13" t="n">
         <v>140</v>
       </c>
-      <c r="AG13" s="13" t="n">
+      <c r="AP13" s="13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
         <v>137</v>
       </c>
-      <c r="AH13" s="13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AI13" s="13" t="n">
-        <v>181</v>
-      </c>
-      <c r="AJ13" s="13" t="n">
-        <v>157</v>
-      </c>
-      <c r="AK13" s="13" t="n">
-        <v>172</v>
-      </c>
-      <c r="AL13" s="13" t="n">
-        <v>144</v>
-      </c>
-      <c r="AM13" s="13" t="n">
-        <v>139</v>
-      </c>
-      <c r="AN13" s="13" t="n">
-        <v>184</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>142</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>130</v>
-      </c>
       <c r="AR13" s="13" t="n">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>180</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,8 +3867,8 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V14" s="16" t="n">
         <v>0</v>
@@ -3897,8 +3897,8 @@
       <c r="AD14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE14" s="16" t="n">
-        <v>0</v>
+      <c r="AE14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF14" s="16" t="s">
         <v>58</v>
@@ -3921,17 +3921,17 @@
       <c r="AL14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP14" s="16" t="n">
-        <v>0</v>
+      <c r="AM14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ14" s="16" t="s">
         <v>58</v>
@@ -4089,8 +4089,8 @@
       <c r="AO15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP15" s="13" t="s">
-        <v>58</v>
+      <c r="AP15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ15" s="13" t="n">
         <v>0</v>
@@ -4184,106 +4184,106 @@
         <v>0</v>
       </c>
       <c r="U16" s="18" t="n">
-        <v>0</v>
+        <v>3804</v>
       </c>
       <c r="V16" s="18" t="n">
-        <v>3804</v>
+        <v>3798</v>
       </c>
       <c r="W16" s="18" t="n">
-        <v>3798</v>
+        <v>3818</v>
       </c>
       <c r="X16" s="18" t="n">
-        <v>3818</v>
+        <v>3729</v>
       </c>
       <c r="Y16" s="18" t="n">
-        <v>3729</v>
+        <v>3941</v>
       </c>
       <c r="Z16" s="18" t="n">
-        <v>3941</v>
+        <v>4142</v>
       </c>
       <c r="AA16" s="18" t="n">
-        <v>4142</v>
+        <v>4302</v>
       </c>
       <c r="AB16" s="18" t="n">
-        <v>4302</v>
+        <v>4442</v>
       </c>
       <c r="AC16" s="18" t="n">
-        <v>4442</v>
+        <v>4493</v>
       </c>
       <c r="AD16" s="18" t="n">
-        <v>4493</v>
+        <v>4656</v>
       </c>
       <c r="AE16" s="18" t="n">
-        <v>4656</v>
+        <v>4553</v>
       </c>
       <c r="AF16" s="18" t="n">
-        <v>4553</v>
+        <v>4348</v>
       </c>
       <c r="AG16" s="18" t="n">
-        <v>4348</v>
+        <v>4284</v>
       </c>
       <c r="AH16" s="18" t="n">
-        <v>4284</v>
+        <v>4309</v>
       </c>
       <c r="AI16" s="18" t="n">
-        <v>4309</v>
+        <v>4326</v>
       </c>
       <c r="AJ16" s="18" t="n">
-        <v>4326</v>
+        <v>4258</v>
       </c>
       <c r="AK16" s="18" t="n">
-        <v>4258</v>
+        <v>4381</v>
       </c>
       <c r="AL16" s="18" t="n">
-        <v>4381</v>
+        <v>4455</v>
       </c>
       <c r="AM16" s="18" t="n">
-        <v>4455</v>
+        <v>4628</v>
       </c>
       <c r="AN16" s="18" t="n">
-        <v>4628</v>
+        <v>4649</v>
       </c>
       <c r="AO16" s="18" t="n">
-        <v>4649</v>
+        <v>43000</v>
       </c>
       <c r="AP16" s="18" t="n">
-        <v>43000</v>
+        <v>4888</v>
       </c>
       <c r="AQ16" s="18" t="n">
-        <v>4888</v>
+        <v>4841</v>
       </c>
       <c r="AR16" s="18" t="n">
-        <v>4841</v>
+        <v>4660</v>
       </c>
       <c r="AS16" s="18" t="n">
-        <v>4660</v>
+        <v>4629</v>
       </c>
       <c r="AT16" s="18" t="n">
-        <v>4629</v>
+        <v>4592</v>
       </c>
       <c r="AU16" s="18" t="n">
-        <v>4592</v>
+        <v>4820</v>
       </c>
       <c r="AV16" s="18" t="n">
-        <v>4820</v>
+        <v>4852</v>
       </c>
       <c r="AW16" s="18" t="n">
-        <v>4852</v>
+        <v>5118</v>
       </c>
       <c r="AX16" s="18" t="n">
-        <v>5118</v>
+        <v>5233</v>
       </c>
       <c r="AY16" s="18" t="n">
-        <v>5233</v>
+        <v>5254</v>
       </c>
       <c r="AZ16" s="18" t="n">
-        <v>5254</v>
+        <v>5253</v>
       </c>
       <c r="BA16" s="18" t="n">
-        <v>5253</v>
+        <v>5296</v>
       </c>
       <c r="BB16" s="18" t="n">
-        <v>5296</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,8 +4611,8 @@
       <c r="T20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="22" t="s">
-        <v>58</v>
+      <c r="U20" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="22" t="n">
         <v>0</v>
@@ -4674,8 +4674,8 @@
       <c r="AO20" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="AP20" s="22" t="n">
-        <v>0</v>
+      <c r="AP20" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="AQ20" s="22" t="s">
         <v>58</v>
@@ -4769,106 +4769,106 @@
         <v>0</v>
       </c>
       <c r="U21" s="18" t="n">
-        <v>0</v>
+        <v>3804</v>
       </c>
       <c r="V21" s="18" t="n">
-        <v>3804</v>
+        <v>3798</v>
       </c>
       <c r="W21" s="18" t="n">
-        <v>3798</v>
+        <v>3818</v>
       </c>
       <c r="X21" s="18" t="n">
-        <v>3818</v>
+        <v>3729</v>
       </c>
       <c r="Y21" s="18" t="n">
-        <v>3729</v>
+        <v>3941</v>
       </c>
       <c r="Z21" s="18" t="n">
-        <v>3941</v>
+        <v>4142</v>
       </c>
       <c r="AA21" s="18" t="n">
-        <v>4142</v>
+        <v>4302</v>
       </c>
       <c r="AB21" s="18" t="n">
-        <v>4302</v>
+        <v>4442</v>
       </c>
       <c r="AC21" s="18" t="n">
-        <v>4442</v>
+        <v>4493</v>
       </c>
       <c r="AD21" s="18" t="n">
-        <v>4493</v>
+        <v>4656</v>
       </c>
       <c r="AE21" s="18" t="n">
-        <v>4656</v>
+        <v>4553</v>
       </c>
       <c r="AF21" s="18" t="n">
-        <v>4553</v>
+        <v>4348</v>
       </c>
       <c r="AG21" s="18" t="n">
-        <v>4348</v>
+        <v>4284</v>
       </c>
       <c r="AH21" s="18" t="n">
-        <v>4284</v>
+        <v>4309</v>
       </c>
       <c r="AI21" s="18" t="n">
-        <v>4309</v>
+        <v>4326</v>
       </c>
       <c r="AJ21" s="18" t="n">
-        <v>4326</v>
+        <v>4258</v>
       </c>
       <c r="AK21" s="18" t="n">
-        <v>4258</v>
+        <v>4381</v>
       </c>
       <c r="AL21" s="18" t="n">
-        <v>4381</v>
+        <v>4455</v>
       </c>
       <c r="AM21" s="18" t="n">
-        <v>4455</v>
+        <v>4628</v>
       </c>
       <c r="AN21" s="18" t="n">
-        <v>4628</v>
+        <v>4649</v>
       </c>
       <c r="AO21" s="18" t="n">
-        <v>4649</v>
+        <v>43000</v>
       </c>
       <c r="AP21" s="18" t="n">
-        <v>43000</v>
+        <v>4888</v>
       </c>
       <c r="AQ21" s="18" t="n">
-        <v>4888</v>
+        <v>4841</v>
       </c>
       <c r="AR21" s="18" t="n">
-        <v>4841</v>
+        <v>4660</v>
       </c>
       <c r="AS21" s="18" t="n">
-        <v>4660</v>
+        <v>4629</v>
       </c>
       <c r="AT21" s="18" t="n">
-        <v>4629</v>
+        <v>4592</v>
       </c>
       <c r="AU21" s="18" t="n">
-        <v>4592</v>
+        <v>4820</v>
       </c>
       <c r="AV21" s="18" t="n">
-        <v>4820</v>
+        <v>4852</v>
       </c>
       <c r="AW21" s="18" t="n">
-        <v>4852</v>
+        <v>5118</v>
       </c>
       <c r="AX21" s="18" t="n">
-        <v>5118</v>
+        <v>5233</v>
       </c>
       <c r="AY21" s="18" t="n">
-        <v>5233</v>
+        <v>5254</v>
       </c>
       <c r="AZ21" s="18" t="n">
-        <v>5254</v>
+        <v>5253</v>
       </c>
       <c r="BA21" s="18" t="n">
-        <v>5253</v>
+        <v>5296</v>
       </c>
       <c r="BB21" s="18" t="n">
-        <v>5296</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,107 +5361,107 @@
       <c r="T28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U28" s="13" t="s">
-        <v>58</v>
+      <c r="U28" s="13" t="n">
+        <v>3595</v>
       </c>
       <c r="V28" s="13" t="n">
-        <v>3595</v>
+        <v>3522</v>
       </c>
       <c r="W28" s="13" t="n">
-        <v>3522</v>
+        <v>3557</v>
       </c>
       <c r="X28" s="13" t="n">
-        <v>3557</v>
+        <v>3459</v>
       </c>
       <c r="Y28" s="13" t="n">
-        <v>3459</v>
+        <v>3621</v>
       </c>
       <c r="Z28" s="13" t="n">
-        <v>3621</v>
+        <v>3853</v>
       </c>
       <c r="AA28" s="13" t="n">
-        <v>3853</v>
+        <v>3968</v>
       </c>
       <c r="AB28" s="13" t="n">
-        <v>3968</v>
+        <v>4128</v>
       </c>
       <c r="AC28" s="13" t="n">
-        <v>4128</v>
+        <v>4193</v>
       </c>
       <c r="AD28" s="13" t="n">
-        <v>4193</v>
+        <v>4392</v>
       </c>
       <c r="AE28" s="13" t="n">
-        <v>4392</v>
+        <v>4255</v>
       </c>
       <c r="AF28" s="13" t="n">
-        <v>4255</v>
+        <v>4075</v>
       </c>
       <c r="AG28" s="13" t="n">
-        <v>4075</v>
+        <v>3992</v>
       </c>
       <c r="AH28" s="13" t="n">
-        <v>3992</v>
+        <v>3979</v>
       </c>
       <c r="AI28" s="13" t="n">
-        <v>3979</v>
+        <v>4014</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>4014</v>
+        <v>3946</v>
       </c>
       <c r="AK28" s="13" t="n">
-        <v>3946</v>
+        <v>4094</v>
       </c>
       <c r="AL28" s="13" t="n">
-        <v>4094</v>
+        <v>4137</v>
       </c>
       <c r="AM28" s="13" t="n">
-        <v>4137</v>
+        <v>4285</v>
       </c>
       <c r="AN28" s="13" t="n">
-        <v>4285</v>
+        <v>4441</v>
       </c>
       <c r="AO28" s="13" t="n">
-        <v>4441</v>
+        <v>4157</v>
       </c>
       <c r="AP28" s="13" t="n">
-        <v>4157</v>
+        <v>4636</v>
       </c>
       <c r="AQ28" s="13" t="n">
-        <v>4636</v>
+        <v>4549</v>
       </c>
       <c r="AR28" s="13" t="n">
-        <v>4549</v>
+        <v>4384</v>
       </c>
       <c r="AS28" s="13" t="n">
-        <v>4384</v>
+        <v>4274</v>
       </c>
       <c r="AT28" s="13" t="n">
-        <v>4274</v>
+        <v>4215</v>
       </c>
       <c r="AU28" s="13" t="n">
-        <v>4215</v>
+        <v>4309</v>
       </c>
       <c r="AV28" s="13" t="n">
-        <v>4309</v>
+        <v>4462</v>
       </c>
       <c r="AW28" s="13" t="n">
-        <v>4462</v>
+        <v>4678</v>
       </c>
       <c r="AX28" s="13" t="n">
-        <v>4678</v>
+        <v>4803</v>
       </c>
       <c r="AY28" s="13" t="n">
-        <v>4803</v>
+        <v>4894</v>
       </c>
       <c r="AZ28" s="13" t="n">
-        <v>4894</v>
+        <v>4909</v>
       </c>
       <c r="BA28" s="13" t="n">
-        <v>4909</v>
+        <v>4975</v>
       </c>
       <c r="BB28" s="13" t="n">
-        <v>4975</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,12 +5580,12 @@
       <c r="AN29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP29" s="16" t="n">
+      <c r="AO29" s="16" t="n">
         <v>67233</v>
       </c>
+      <c r="AP29" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ29" s="16" t="s">
         <v>58</v>
       </c>
@@ -5619,8 +5619,8 @@
       <c r="BA29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BB29" s="16" t="s">
-        <v>58</v>
+      <c r="BB29" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,107 +5679,107 @@
       <c r="T30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="13" t="s">
-        <v>58</v>
+      <c r="U30" s="13" t="n">
+        <v>23</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="X30" s="13" t="n">
+        <v>157</v>
+      </c>
+      <c r="Y30" s="13" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z30" s="13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA30" s="13" t="n">
+        <v>245</v>
+      </c>
+      <c r="AB30" s="13" t="n">
+        <v>348</v>
+      </c>
+      <c r="AC30" s="13" t="n">
+        <v>258</v>
+      </c>
+      <c r="AD30" s="13" t="n">
+        <v>277</v>
+      </c>
+      <c r="AE30" s="13" t="n">
+        <v>173</v>
+      </c>
+      <c r="AF30" s="13" t="n">
+        <v>195</v>
+      </c>
+      <c r="AG30" s="13" t="n">
+        <v>47</v>
+      </c>
+      <c r="AH30" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="AI30" s="13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ30" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="AK30" s="13" t="n">
+        <v>307</v>
+      </c>
+      <c r="AL30" s="13" t="n">
+        <v>133</v>
+      </c>
+      <c r="AM30" s="13" t="n">
+        <v>148</v>
+      </c>
+      <c r="AN30" s="13" t="n">
+        <v>122</v>
+      </c>
+      <c r="AO30" s="13" t="n">
+        <v>190</v>
+      </c>
+      <c r="AP30" s="13" t="n">
+        <v>305</v>
+      </c>
+      <c r="AQ30" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR30" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS30" s="13" t="n">
+        <v>117</v>
+      </c>
+      <c r="AT30" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AU30" s="13" t="n">
+        <v>304</v>
+      </c>
+      <c r="AV30" s="13" t="n">
+        <v>428</v>
+      </c>
+      <c r="AW30" s="13" t="n">
+        <v>199</v>
+      </c>
+      <c r="AX30" s="13" t="n">
+        <v>345</v>
+      </c>
+      <c r="AY30" s="13" t="n">
+        <v>219</v>
+      </c>
+      <c r="AZ30" s="13" t="n">
+        <v>479</v>
+      </c>
+      <c r="BA30" s="13" t="n">
+        <v>194</v>
+      </c>
+      <c r="BB30" s="13" t="n">
         <v>35</v>
-      </c>
-      <c r="Y30" s="13" t="n">
-        <v>157</v>
-      </c>
-      <c r="Z30" s="13" t="n">
-        <v>78</v>
-      </c>
-      <c r="AA30" s="13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB30" s="13" t="n">
-        <v>245</v>
-      </c>
-      <c r="AC30" s="13" t="n">
-        <v>348</v>
-      </c>
-      <c r="AD30" s="13" t="n">
-        <v>258</v>
-      </c>
-      <c r="AE30" s="13" t="n">
-        <v>277</v>
-      </c>
-      <c r="AF30" s="13" t="n">
-        <v>173</v>
-      </c>
-      <c r="AG30" s="13" t="n">
-        <v>195</v>
-      </c>
-      <c r="AH30" s="13" t="n">
-        <v>47</v>
-      </c>
-      <c r="AI30" s="13" t="n">
-        <v>105</v>
-      </c>
-      <c r="AJ30" s="13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK30" s="13" t="n">
-        <v>105</v>
-      </c>
-      <c r="AL30" s="13" t="n">
-        <v>307</v>
-      </c>
-      <c r="AM30" s="13" t="n">
-        <v>133</v>
-      </c>
-      <c r="AN30" s="13" t="n">
-        <v>148</v>
-      </c>
-      <c r="AO30" s="13" t="n">
-        <v>122</v>
-      </c>
-      <c r="AP30" s="13" t="n">
-        <v>190</v>
-      </c>
-      <c r="AQ30" s="13" t="n">
-        <v>305</v>
-      </c>
-      <c r="AR30" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS30" s="13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT30" s="13" t="n">
-        <v>117</v>
-      </c>
-      <c r="AU30" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AV30" s="13" t="n">
-        <v>304</v>
-      </c>
-      <c r="AW30" s="13" t="n">
-        <v>428</v>
-      </c>
-      <c r="AX30" s="13" t="n">
-        <v>199</v>
-      </c>
-      <c r="AY30" s="13" t="n">
-        <v>345</v>
-      </c>
-      <c r="AZ30" s="13" t="n">
-        <v>219</v>
-      </c>
-      <c r="BA30" s="13" t="n">
-        <v>479</v>
-      </c>
-      <c r="BB30" s="13" t="n">
-        <v>194</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,8 +5838,8 @@
       <c r="T31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="16" t="s">
-        <v>58</v>
+      <c r="U31" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="16" t="n">
         <v>0</v>
@@ -5868,8 +5868,8 @@
       <c r="AD31" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE31" s="16" t="n">
-        <v>0</v>
+      <c r="AE31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF31" s="16" t="s">
         <v>58</v>
@@ -5892,17 +5892,17 @@
       <c r="AL31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP31" s="16" t="n">
-        <v>0</v>
+      <c r="AM31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ31" s="16" t="s">
         <v>58</v>
@@ -6060,8 +6060,8 @@
       <c r="AO32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP32" s="13" t="s">
-        <v>58</v>
+      <c r="AP32" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ32" s="13" t="n">
         <v>0</v>
@@ -6155,106 +6155,106 @@
         <v>0</v>
       </c>
       <c r="U33" s="18" t="n">
-        <v>0</v>
+        <v>3618</v>
       </c>
       <c r="V33" s="18" t="n">
-        <v>3618</v>
+        <v>3587</v>
       </c>
       <c r="W33" s="18" t="n">
-        <v>3587</v>
+        <v>3592</v>
       </c>
       <c r="X33" s="18" t="n">
-        <v>3592</v>
+        <v>3616</v>
       </c>
       <c r="Y33" s="18" t="n">
-        <v>3616</v>
+        <v>3699</v>
       </c>
       <c r="Z33" s="18" t="n">
-        <v>3699</v>
+        <v>3894</v>
       </c>
       <c r="AA33" s="18" t="n">
-        <v>3894</v>
+        <v>4213</v>
       </c>
       <c r="AB33" s="18" t="n">
-        <v>4213</v>
+        <v>4476</v>
       </c>
       <c r="AC33" s="18" t="n">
-        <v>4476</v>
+        <v>4451</v>
       </c>
       <c r="AD33" s="18" t="n">
-        <v>4451</v>
+        <v>4669</v>
       </c>
       <c r="AE33" s="18" t="n">
-        <v>4669</v>
+        <v>4428</v>
       </c>
       <c r="AF33" s="18" t="n">
-        <v>4428</v>
+        <v>4270</v>
       </c>
       <c r="AG33" s="18" t="n">
+        <v>4039</v>
+      </c>
+      <c r="AH33" s="18" t="n">
+        <v>4084</v>
+      </c>
+      <c r="AI33" s="18" t="n">
+        <v>4165</v>
+      </c>
+      <c r="AJ33" s="18" t="n">
+        <v>4051</v>
+      </c>
+      <c r="AK33" s="18" t="n">
+        <v>4401</v>
+      </c>
+      <c r="AL33" s="18" t="n">
         <v>4270</v>
       </c>
-      <c r="AH33" s="18" t="n">
-        <v>4039</v>
-      </c>
-      <c r="AI33" s="18" t="n">
-        <v>4084</v>
-      </c>
-      <c r="AJ33" s="18" t="n">
-        <v>4165</v>
-      </c>
-      <c r="AK33" s="18" t="n">
-        <v>4051</v>
-      </c>
-      <c r="AL33" s="18" t="n">
-        <v>4401</v>
-      </c>
       <c r="AM33" s="18" t="n">
-        <v>4270</v>
+        <v>4433</v>
       </c>
       <c r="AN33" s="18" t="n">
-        <v>4433</v>
+        <v>4563</v>
       </c>
       <c r="AO33" s="18" t="n">
-        <v>4563</v>
+        <v>71580</v>
       </c>
       <c r="AP33" s="18" t="n">
-        <v>71580</v>
+        <v>4941</v>
       </c>
       <c r="AQ33" s="18" t="n">
-        <v>4941</v>
+        <v>4567</v>
       </c>
       <c r="AR33" s="18" t="n">
-        <v>4567</v>
+        <v>4397</v>
       </c>
       <c r="AS33" s="18" t="n">
-        <v>4397</v>
+        <v>4391</v>
       </c>
       <c r="AT33" s="18" t="n">
-        <v>4391</v>
+        <v>4255</v>
       </c>
       <c r="AU33" s="18" t="n">
-        <v>4255</v>
+        <v>4613</v>
       </c>
       <c r="AV33" s="18" t="n">
-        <v>4613</v>
+        <v>4890</v>
       </c>
       <c r="AW33" s="18" t="n">
-        <v>4890</v>
+        <v>4877</v>
       </c>
       <c r="AX33" s="18" t="n">
-        <v>4877</v>
+        <v>5148</v>
       </c>
       <c r="AY33" s="18" t="n">
-        <v>5148</v>
+        <v>5113</v>
       </c>
       <c r="AZ33" s="18" t="n">
-        <v>5113</v>
+        <v>5388</v>
       </c>
       <c r="BA33" s="18" t="n">
-        <v>5388</v>
+        <v>5169</v>
       </c>
       <c r="BB33" s="18" t="n">
-        <v>5169</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6582,8 +6582,8 @@
       <c r="T37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="22" t="s">
-        <v>58</v>
+      <c r="U37" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="22" t="n">
         <v>0</v>
@@ -6645,8 +6645,8 @@
       <c r="AO37" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="AP37" s="22" t="n">
-        <v>0</v>
+      <c r="AP37" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="AQ37" s="22" t="s">
         <v>58</v>
@@ -6796,8 +6796,8 @@
       <c r="T39" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="22" t="s">
-        <v>58</v>
+      <c r="U39" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="22" t="n">
         <v>0</v>
@@ -6859,8 +6859,8 @@
       <c r="AO39" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="AP39" s="22" t="n">
-        <v>0</v>
+      <c r="AP39" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="AQ39" s="22" t="s">
         <v>58</v>
@@ -6954,106 +6954,106 @@
         <v>0</v>
       </c>
       <c r="U40" s="18" t="n">
-        <v>0</v>
+        <v>3618</v>
       </c>
       <c r="V40" s="18" t="n">
-        <v>3618</v>
+        <v>3587</v>
       </c>
       <c r="W40" s="18" t="n">
-        <v>3587</v>
+        <v>3592</v>
       </c>
       <c r="X40" s="18" t="n">
-        <v>3592</v>
+        <v>3616</v>
       </c>
       <c r="Y40" s="18" t="n">
-        <v>3616</v>
+        <v>3699</v>
       </c>
       <c r="Z40" s="18" t="n">
-        <v>3699</v>
+        <v>3894</v>
       </c>
       <c r="AA40" s="18" t="n">
-        <v>3894</v>
+        <v>4213</v>
       </c>
       <c r="AB40" s="18" t="n">
-        <v>4213</v>
+        <v>4476</v>
       </c>
       <c r="AC40" s="18" t="n">
-        <v>4476</v>
+        <v>4451</v>
       </c>
       <c r="AD40" s="18" t="n">
-        <v>4451</v>
+        <v>4669</v>
       </c>
       <c r="AE40" s="18" t="n">
-        <v>4669</v>
+        <v>4428</v>
       </c>
       <c r="AF40" s="18" t="n">
-        <v>4428</v>
+        <v>4270</v>
       </c>
       <c r="AG40" s="18" t="n">
+        <v>4039</v>
+      </c>
+      <c r="AH40" s="18" t="n">
+        <v>4084</v>
+      </c>
+      <c r="AI40" s="18" t="n">
+        <v>4165</v>
+      </c>
+      <c r="AJ40" s="18" t="n">
+        <v>4051</v>
+      </c>
+      <c r="AK40" s="18" t="n">
+        <v>4401</v>
+      </c>
+      <c r="AL40" s="18" t="n">
         <v>4270</v>
       </c>
-      <c r="AH40" s="18" t="n">
-        <v>4039</v>
-      </c>
-      <c r="AI40" s="18" t="n">
-        <v>4084</v>
-      </c>
-      <c r="AJ40" s="18" t="n">
-        <v>4165</v>
-      </c>
-      <c r="AK40" s="18" t="n">
-        <v>4051</v>
-      </c>
-      <c r="AL40" s="18" t="n">
-        <v>4401</v>
-      </c>
       <c r="AM40" s="18" t="n">
-        <v>4270</v>
+        <v>4433</v>
       </c>
       <c r="AN40" s="18" t="n">
-        <v>4433</v>
+        <v>4563</v>
       </c>
       <c r="AO40" s="18" t="n">
-        <v>4563</v>
+        <v>71580</v>
       </c>
       <c r="AP40" s="18" t="n">
-        <v>71580</v>
+        <v>4941</v>
       </c>
       <c r="AQ40" s="18" t="n">
-        <v>4941</v>
+        <v>4567</v>
       </c>
       <c r="AR40" s="18" t="n">
-        <v>4567</v>
+        <v>4397</v>
       </c>
       <c r="AS40" s="18" t="n">
-        <v>4397</v>
+        <v>4391</v>
       </c>
       <c r="AT40" s="18" t="n">
-        <v>4391</v>
+        <v>4255</v>
       </c>
       <c r="AU40" s="18" t="n">
-        <v>4255</v>
+        <v>4613</v>
       </c>
       <c r="AV40" s="18" t="n">
-        <v>4613</v>
+        <v>4890</v>
       </c>
       <c r="AW40" s="18" t="n">
-        <v>4890</v>
+        <v>4877</v>
       </c>
       <c r="AX40" s="18" t="n">
-        <v>4877</v>
+        <v>5148</v>
       </c>
       <c r="AY40" s="18" t="n">
-        <v>5148</v>
+        <v>5113</v>
       </c>
       <c r="AZ40" s="18" t="n">
-        <v>5113</v>
+        <v>5388</v>
       </c>
       <c r="BA40" s="18" t="n">
-        <v>5388</v>
+        <v>5169</v>
       </c>
       <c r="BB40" s="18" t="n">
-        <v>5169</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7546,107 +7546,107 @@
       <c r="T47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="13" t="s">
-        <v>58</v>
+      <c r="U47" s="13" t="n">
+        <v>114952</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>114952</v>
+        <v>122242</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>122242</v>
+        <v>130542</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>130542</v>
+        <v>132207</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>132207</v>
+        <v>161205</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>161205</v>
+        <v>184256</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>184256</v>
+        <v>190609</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>190609</v>
+        <v>195537</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>195537</v>
+        <v>196877</v>
       </c>
       <c r="AD47" s="13" t="n">
-        <v>196877</v>
+        <v>206654</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>206654</v>
+        <v>209143</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>209143</v>
+        <v>202448</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>202448</v>
+        <v>204814</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>204814</v>
+        <v>211610</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>211610</v>
+        <v>263644</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>263644</v>
+        <v>257247</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>257247</v>
+        <v>268641</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>268641</v>
+        <v>273573</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>273573</v>
+        <v>285215</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>285215</v>
+        <v>296819</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>296819</v>
+        <v>274514</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>274514</v>
+        <v>296704</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>296704</v>
+        <v>291136</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>291136</v>
+        <v>526080</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>526080</v>
+        <v>512880</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>512880</v>
+        <v>505800</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>505800</v>
+        <v>517080</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>517080</v>
+        <v>535440</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>535440</v>
+        <v>561360</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>561360</v>
+        <v>576360</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>576360</v>
+        <v>587280</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>587280</v>
+        <v>589080</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>589080</v>
+        <v>597000</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>597000</v>
+        <v>653880</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7765,12 +7765,12 @@
       <c r="AN48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO48" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP48" s="16" t="n">
+      <c r="AO48" s="16" t="n">
         <v>81691</v>
       </c>
+      <c r="AP48" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ48" s="16" t="s">
         <v>58</v>
       </c>
@@ -7804,8 +7804,8 @@
       <c r="BA48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BB48" s="16" t="s">
-        <v>58</v>
+      <c r="BB48" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7864,107 +7864,107 @@
       <c r="T49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="13" t="s">
-        <v>58</v>
+      <c r="U49" s="13" t="n">
+        <v>1269</v>
       </c>
       <c r="V49" s="13" t="n">
-        <v>1269</v>
+        <v>4623</v>
       </c>
       <c r="W49" s="13" t="n">
-        <v>4623</v>
+        <v>2040</v>
       </c>
       <c r="X49" s="13" t="n">
-        <v>2040</v>
+        <v>13208</v>
       </c>
       <c r="Y49" s="13" t="n">
-        <v>13208</v>
+        <v>6392</v>
       </c>
       <c r="Z49" s="13" t="n">
-        <v>6392</v>
+        <v>2337</v>
       </c>
       <c r="AA49" s="13" t="n">
-        <v>2337</v>
+        <v>13445</v>
       </c>
       <c r="AB49" s="13" t="n">
-        <v>13445</v>
+        <v>28191</v>
       </c>
       <c r="AC49" s="13" t="n">
-        <v>28191</v>
+        <v>20247</v>
       </c>
       <c r="AD49" s="13" t="n">
-        <v>20247</v>
+        <v>22148</v>
       </c>
       <c r="AE49" s="13" t="n">
-        <v>22148</v>
+        <v>13447</v>
       </c>
       <c r="AF49" s="13" t="n">
-        <v>13447</v>
+        <v>14990</v>
       </c>
       <c r="AG49" s="13" t="n">
-        <v>14990</v>
+        <v>3066</v>
       </c>
       <c r="AH49" s="13" t="n">
-        <v>3066</v>
+        <v>8808</v>
       </c>
       <c r="AI49" s="13" t="n">
-        <v>8808</v>
+        <v>13304</v>
       </c>
       <c r="AJ49" s="13" t="n">
-        <v>13304</v>
+        <v>8580</v>
       </c>
       <c r="AK49" s="13" t="n">
-        <v>8580</v>
+        <v>29052</v>
       </c>
       <c r="AL49" s="13" t="n">
-        <v>29052</v>
+        <v>10663</v>
       </c>
       <c r="AM49" s="13" t="n">
-        <v>10663</v>
+        <v>12075</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>12075</v>
+        <v>9376</v>
       </c>
       <c r="AO49" s="13" t="n">
-        <v>9376</v>
+        <v>18227</v>
       </c>
       <c r="AP49" s="13" t="n">
-        <v>18227</v>
+        <v>28511</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>28511</v>
+        <v>1171</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>1171</v>
+        <v>1366</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>1366</v>
+        <v>15407</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>15407</v>
+        <v>1993</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>1993</v>
+        <v>42481</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>42481</v>
+        <v>45582</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>45582</v>
+        <v>22205</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>22205</v>
+        <v>43699</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>43699</v>
+        <v>23782</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>23782</v>
+        <v>59382</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>59382</v>
+        <v>22930</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>22930</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8023,71 +8023,71 @@
       <c r="T50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="16" t="s">
-        <v>58</v>
+      <c r="U50" s="16" t="n">
+        <v>2232</v>
       </c>
       <c r="V50" s="16" t="n">
-        <v>2232</v>
+        <v>3072</v>
       </c>
       <c r="W50" s="16" t="n">
-        <v>3072</v>
+        <v>3360</v>
       </c>
       <c r="X50" s="16" t="n">
-        <v>3360</v>
+        <v>528</v>
       </c>
       <c r="Y50" s="16" t="n">
-        <v>528</v>
+        <v>3384</v>
       </c>
       <c r="Z50" s="16" t="n">
-        <v>3384</v>
+        <v>3648</v>
       </c>
       <c r="AA50" s="16" t="n">
-        <v>3648</v>
+        <v>-1488</v>
       </c>
       <c r="AB50" s="16" t="n">
-        <v>-1488</v>
+        <v>-4416</v>
       </c>
       <c r="AC50" s="16" t="n">
-        <v>-4416</v>
+        <v>-3312</v>
       </c>
       <c r="AD50" s="16" t="n">
-        <v>-3312</v>
+        <v>13296</v>
       </c>
       <c r="AE50" s="16" t="n">
-        <v>13296</v>
+        <v>-792</v>
       </c>
       <c r="AF50" s="16" t="n">
-        <v>-792</v>
+        <v>-1392</v>
       </c>
       <c r="AG50" s="16" t="n">
-        <v>-1392</v>
+        <v>2496</v>
       </c>
       <c r="AH50" s="16" t="n">
-        <v>2496</v>
+        <v>1824</v>
       </c>
       <c r="AI50" s="16" t="n">
-        <v>1824</v>
+        <v>144</v>
       </c>
       <c r="AJ50" s="16" t="n">
+        <v>1608</v>
+      </c>
+      <c r="AK50" s="16" t="n">
+        <v>-3912</v>
+      </c>
+      <c r="AL50" s="16" t="n">
         <v>144</v>
-      </c>
-      <c r="AK50" s="16" t="n">
-        <v>1608</v>
-      </c>
-      <c r="AL50" s="16" t="n">
-        <v>-3912</v>
       </c>
       <c r="AM50" s="16" t="n">
         <v>144</v>
       </c>
       <c r="AN50" s="16" t="n">
-        <v>144</v>
+        <v>408</v>
       </c>
       <c r="AO50" s="16" t="n">
-        <v>408</v>
-      </c>
-      <c r="AP50" s="16" t="n">
         <v>17996</v>
+      </c>
+      <c r="AP50" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ50" s="16" t="s">
         <v>58</v>
@@ -8245,44 +8245,44 @@
       <c r="AO51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP51" s="13" t="s">
-        <v>58</v>
+      <c r="AP51" s="13" t="n">
+        <v>10629</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>10629</v>
+        <v>17893</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>17893</v>
+        <v>19425</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>19425</v>
+        <v>201</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>201</v>
+        <v>1315</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>1315</v>
+        <v>-21454</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>-21454</v>
+        <v>15567</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>15567</v>
+        <v>14518</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>14518</v>
+        <v>22714</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>22714</v>
+        <v>25403</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>25403</v>
+        <v>25032</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>25032</v>
+        <v>15897</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>15897</v>
+        <v>19743</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8340,106 +8340,106 @@
         <v>0</v>
       </c>
       <c r="U52" s="18" t="n">
-        <v>0</v>
+        <v>118453</v>
       </c>
       <c r="V52" s="18" t="n">
-        <v>118453</v>
+        <v>129937</v>
       </c>
       <c r="W52" s="18" t="n">
-        <v>129937</v>
+        <v>135942</v>
       </c>
       <c r="X52" s="18" t="n">
-        <v>135942</v>
+        <v>145943</v>
       </c>
       <c r="Y52" s="18" t="n">
-        <v>145943</v>
+        <v>170981</v>
       </c>
       <c r="Z52" s="18" t="n">
-        <v>170981</v>
+        <v>190241</v>
       </c>
       <c r="AA52" s="18" t="n">
-        <v>190241</v>
+        <v>202566</v>
       </c>
       <c r="AB52" s="18" t="n">
-        <v>202566</v>
+        <v>219312</v>
       </c>
       <c r="AC52" s="18" t="n">
-        <v>219312</v>
+        <v>213812</v>
       </c>
       <c r="AD52" s="18" t="n">
-        <v>213812</v>
+        <v>242098</v>
       </c>
       <c r="AE52" s="18" t="n">
-        <v>242098</v>
+        <v>221798</v>
       </c>
       <c r="AF52" s="18" t="n">
-        <v>221798</v>
+        <v>216046</v>
       </c>
       <c r="AG52" s="18" t="n">
-        <v>216046</v>
+        <v>210376</v>
       </c>
       <c r="AH52" s="18" t="n">
-        <v>210376</v>
+        <v>222242</v>
       </c>
       <c r="AI52" s="18" t="n">
-        <v>222242</v>
+        <v>277092</v>
       </c>
       <c r="AJ52" s="18" t="n">
-        <v>277092</v>
+        <v>267435</v>
       </c>
       <c r="AK52" s="18" t="n">
-        <v>267435</v>
+        <v>293781</v>
       </c>
       <c r="AL52" s="18" t="n">
-        <v>293781</v>
+        <v>284380</v>
       </c>
       <c r="AM52" s="18" t="n">
-        <v>284380</v>
+        <v>297434</v>
       </c>
       <c r="AN52" s="18" t="n">
-        <v>297434</v>
+        <v>306603</v>
       </c>
       <c r="AO52" s="18" t="n">
-        <v>306603</v>
+        <v>392428</v>
       </c>
       <c r="AP52" s="18" t="n">
-        <v>392428</v>
+        <v>335844</v>
       </c>
       <c r="AQ52" s="18" t="n">
-        <v>335844</v>
+        <v>310200</v>
       </c>
       <c r="AR52" s="18" t="n">
-        <v>310200</v>
+        <v>546871</v>
       </c>
       <c r="AS52" s="18" t="n">
-        <v>546871</v>
+        <v>528488</v>
       </c>
       <c r="AT52" s="18" t="n">
-        <v>528488</v>
+        <v>509108</v>
       </c>
       <c r="AU52" s="18" t="n">
-        <v>509108</v>
+        <v>538107</v>
       </c>
       <c r="AV52" s="18" t="n">
-        <v>538107</v>
+        <v>596589</v>
       </c>
       <c r="AW52" s="18" t="n">
-        <v>596589</v>
+        <v>598083</v>
       </c>
       <c r="AX52" s="18" t="n">
-        <v>598083</v>
+        <v>642773</v>
       </c>
       <c r="AY52" s="18" t="n">
-        <v>642773</v>
+        <v>636465</v>
       </c>
       <c r="AZ52" s="18" t="n">
-        <v>636465</v>
+        <v>673494</v>
       </c>
       <c r="BA52" s="18" t="n">
-        <v>673494</v>
+        <v>635827</v>
       </c>
       <c r="BB52" s="18" t="n">
-        <v>635827</v>
+        <v>677758</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8832,44 +8832,44 @@
       <c r="AO56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP56" s="13" t="s">
-        <v>58</v>
+      <c r="AP56" s="13" t="n">
+        <v>313919</v>
       </c>
       <c r="AQ56" s="13" t="n">
+        <v>520610</v>
+      </c>
+      <c r="AR56" s="13" t="n">
         <v>313919</v>
       </c>
-      <c r="AR56" s="13" t="n">
-        <v>520610</v>
-      </c>
       <c r="AS56" s="13" t="n">
-        <v>313919</v>
+        <v>487565</v>
       </c>
       <c r="AT56" s="13" t="n">
-        <v>487565</v>
+        <v>553851</v>
       </c>
       <c r="AU56" s="13" t="n">
-        <v>553851</v>
+        <v>632973</v>
       </c>
       <c r="AV56" s="13" t="n">
-        <v>632973</v>
+        <v>507101</v>
       </c>
       <c r="AW56" s="13" t="n">
-        <v>507101</v>
+        <v>505466</v>
       </c>
       <c r="AX56" s="13" t="n">
-        <v>505466</v>
+        <v>502446</v>
       </c>
       <c r="AY56" s="13" t="n">
-        <v>502446</v>
+        <v>504785</v>
       </c>
       <c r="AZ56" s="13" t="n">
-        <v>504785</v>
+        <v>572456</v>
       </c>
       <c r="BA56" s="13" t="n">
-        <v>572456</v>
+        <v>624149</v>
       </c>
       <c r="BB56" s="13" t="n">
-        <v>624149</v>
+        <v>688608</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,44 +8991,44 @@
       <c r="AO57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP57" s="16" t="s">
-        <v>58</v>
+      <c r="AP57" s="16" t="n">
+        <v>-297308</v>
       </c>
       <c r="AQ57" s="16" t="n">
-        <v>-297308</v>
+        <v>-519550</v>
       </c>
       <c r="AR57" s="16" t="n">
-        <v>-519550</v>
+        <v>-254401</v>
       </c>
       <c r="AS57" s="16" t="n">
-        <v>-254401</v>
+        <v>-481687</v>
       </c>
       <c r="AT57" s="16" t="n">
-        <v>-481687</v>
+        <v>-501876</v>
       </c>
       <c r="AU57" s="16" t="n">
-        <v>-501876</v>
+        <v>-617799</v>
       </c>
       <c r="AV57" s="16" t="n">
-        <v>-617799</v>
+        <v>-461036</v>
       </c>
       <c r="AW57" s="16" t="n">
-        <v>-461036</v>
+        <v>-462756</v>
       </c>
       <c r="AX57" s="16" t="n">
-        <v>-462756</v>
+        <v>-473567</v>
       </c>
       <c r="AY57" s="16" t="n">
-        <v>-473567</v>
+        <v>-485156</v>
       </c>
       <c r="AZ57" s="16" t="n">
-        <v>-485156</v>
+        <v>-510333</v>
       </c>
       <c r="BA57" s="16" t="n">
-        <v>-510333</v>
+        <v>-606954</v>
       </c>
       <c r="BB57" s="16" t="n">
-        <v>-606954</v>
+        <v>-673171</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9150,44 +9150,44 @@
       <c r="AO58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP58" s="13" t="s">
-        <v>58</v>
+      <c r="AP58" s="13" t="n">
+        <v>20192</v>
       </c>
       <c r="AQ58" s="13" t="n">
-        <v>20192</v>
+        <v>17883</v>
       </c>
       <c r="AR58" s="13" t="n">
-        <v>17883</v>
+        <v>18526</v>
       </c>
       <c r="AS58" s="13" t="n">
-        <v>18526</v>
+        <v>-3187</v>
       </c>
       <c r="AT58" s="13" t="n">
-        <v>-3187</v>
+        <v>-1243</v>
       </c>
       <c r="AU58" s="13" t="n">
-        <v>-1243</v>
+        <v>2330</v>
       </c>
       <c r="AV58" s="13" t="n">
-        <v>2330</v>
+        <v>1758</v>
       </c>
       <c r="AW58" s="13" t="n">
-        <v>1758</v>
+        <v>89499</v>
       </c>
       <c r="AX58" s="13" t="n">
-        <v>89499</v>
+        <v>3867</v>
       </c>
       <c r="AY58" s="13" t="n">
-        <v>3867</v>
+        <v>60643</v>
       </c>
       <c r="AZ58" s="13" t="n">
-        <v>60643</v>
+        <v>20153</v>
       </c>
       <c r="BA58" s="13" t="n">
-        <v>20153</v>
+        <v>12500</v>
       </c>
       <c r="BB58" s="13" t="n">
-        <v>12500</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,8 +9303,8 @@
       <c r="T60" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="22" t="s">
-        <v>58</v>
+      <c r="U60" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V60" s="23" t="n">
         <v>0</v>
@@ -9366,8 +9366,8 @@
       <c r="AO60" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AP60" s="23" t="n">
-        <v>0</v>
+      <c r="AP60" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="AQ60" s="22" t="s">
         <v>58</v>
@@ -9519,8 +9519,8 @@
       <c r="T62" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="22" t="s">
-        <v>58</v>
+      <c r="U62" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V62" s="23" t="n">
         <v>0</v>
@@ -9582,8 +9582,8 @@
       <c r="AO62" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AP62" s="23" t="n">
-        <v>0</v>
+      <c r="AP62" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="AQ62" s="22" t="s">
         <v>58</v>
@@ -9735,8 +9735,8 @@
       <c r="T64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U64" s="13" t="s">
-        <v>58</v>
+      <c r="U64" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V64" s="13" t="n">
         <v>0</v>
@@ -9798,8 +9798,8 @@
       <c r="AO64" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP64" s="13" t="n">
-        <v>0</v>
+      <c r="AP64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ64" s="13" t="s">
         <v>58</v>
@@ -9893,106 +9893,106 @@
         <v>0</v>
       </c>
       <c r="U65" s="18" t="n">
-        <v>0</v>
+        <v>118453</v>
       </c>
       <c r="V65" s="18" t="n">
-        <v>118453</v>
+        <v>129937</v>
       </c>
       <c r="W65" s="18" t="n">
-        <v>129937</v>
+        <v>135942</v>
       </c>
       <c r="X65" s="18" t="n">
-        <v>135942</v>
+        <v>145943</v>
       </c>
       <c r="Y65" s="18" t="n">
-        <v>145943</v>
+        <v>170981</v>
       </c>
       <c r="Z65" s="18" t="n">
-        <v>170981</v>
+        <v>190241</v>
       </c>
       <c r="AA65" s="18" t="n">
-        <v>190241</v>
+        <v>202566</v>
       </c>
       <c r="AB65" s="18" t="n">
-        <v>202566</v>
+        <v>219312</v>
       </c>
       <c r="AC65" s="18" t="n">
-        <v>219312</v>
+        <v>213812</v>
       </c>
       <c r="AD65" s="18" t="n">
-        <v>213812</v>
+        <v>242098</v>
       </c>
       <c r="AE65" s="18" t="n">
-        <v>242098</v>
+        <v>221798</v>
       </c>
       <c r="AF65" s="18" t="n">
-        <v>221798</v>
+        <v>216046</v>
       </c>
       <c r="AG65" s="18" t="n">
-        <v>216046</v>
+        <v>210376</v>
       </c>
       <c r="AH65" s="18" t="n">
-        <v>210376</v>
+        <v>222242</v>
       </c>
       <c r="AI65" s="18" t="n">
-        <v>222242</v>
+        <v>277092</v>
       </c>
       <c r="AJ65" s="18" t="n">
-        <v>277092</v>
+        <v>267435</v>
       </c>
       <c r="AK65" s="18" t="n">
-        <v>267435</v>
+        <v>293781</v>
       </c>
       <c r="AL65" s="18" t="n">
-        <v>293781</v>
+        <v>284380</v>
       </c>
       <c r="AM65" s="18" t="n">
-        <v>284380</v>
+        <v>297434</v>
       </c>
       <c r="AN65" s="18" t="n">
-        <v>297434</v>
+        <v>306603</v>
       </c>
       <c r="AO65" s="18" t="n">
-        <v>306603</v>
+        <v>392428</v>
       </c>
       <c r="AP65" s="18" t="n">
-        <v>392428</v>
+        <v>372647</v>
       </c>
       <c r="AQ65" s="18" t="n">
-        <v>372647</v>
+        <v>329143</v>
       </c>
       <c r="AR65" s="18" t="n">
-        <v>329143</v>
+        <v>624915</v>
       </c>
       <c r="AS65" s="18" t="n">
-        <v>624915</v>
+        <v>531179</v>
       </c>
       <c r="AT65" s="18" t="n">
-        <v>531179</v>
+        <v>559840</v>
       </c>
       <c r="AU65" s="18" t="n">
-        <v>559840</v>
+        <v>555611</v>
       </c>
       <c r="AV65" s="18" t="n">
-        <v>555611</v>
+        <v>644412</v>
       </c>
       <c r="AW65" s="18" t="n">
-        <v>644412</v>
+        <v>730292</v>
       </c>
       <c r="AX65" s="18" t="n">
-        <v>730292</v>
+        <v>675519</v>
       </c>
       <c r="AY65" s="18" t="n">
-        <v>675519</v>
+        <v>716737</v>
       </c>
       <c r="AZ65" s="18" t="n">
-        <v>716737</v>
+        <v>755770</v>
       </c>
       <c r="BA65" s="18" t="n">
-        <v>755770</v>
+        <v>665522</v>
       </c>
       <c r="BB65" s="18" t="n">
-        <v>665522</v>
+        <v>705295</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10485,77 +10485,77 @@
       <c r="T72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U72" s="13" t="s">
-        <v>58</v>
+      <c r="U72" s="13" t="n">
+        <v>31975522</v>
       </c>
       <c r="V72" s="13" t="n">
-        <v>31975522</v>
+        <v>34708120</v>
       </c>
       <c r="W72" s="13" t="n">
-        <v>34708120</v>
+        <v>36700028</v>
       </c>
       <c r="X72" s="13" t="n">
-        <v>36700028</v>
+        <v>38221162</v>
       </c>
       <c r="Y72" s="13" t="n">
-        <v>38221162</v>
+        <v>44519470</v>
       </c>
       <c r="Z72" s="13" t="n">
-        <v>44519470</v>
+        <v>47821438</v>
       </c>
       <c r="AA72" s="13" t="n">
-        <v>47821438</v>
+        <v>48036542</v>
       </c>
       <c r="AB72" s="13" t="n">
-        <v>48036542</v>
+        <v>47368459</v>
       </c>
       <c r="AC72" s="13" t="n">
-        <v>47368459</v>
+        <v>46953732</v>
       </c>
       <c r="AD72" s="13" t="n">
-        <v>46953732</v>
+        <v>47052368</v>
       </c>
       <c r="AE72" s="13" t="n">
-        <v>47052368</v>
+        <v>49152291</v>
       </c>
       <c r="AF72" s="13" t="n">
-        <v>49152291</v>
+        <v>49680491</v>
       </c>
       <c r="AG72" s="13" t="n">
-        <v>49680491</v>
+        <v>51306112</v>
       </c>
       <c r="AH72" s="13" t="n">
-        <v>51306112</v>
+        <v>53181704</v>
       </c>
       <c r="AI72" s="13" t="n">
-        <v>53181704</v>
+        <v>65681116</v>
       </c>
       <c r="AJ72" s="13" t="n">
-        <v>65681116</v>
+        <v>65191840</v>
       </c>
       <c r="AK72" s="13" t="n">
-        <v>65191840</v>
+        <v>65618222</v>
       </c>
       <c r="AL72" s="13" t="n">
-        <v>65618222</v>
+        <v>66128354</v>
       </c>
       <c r="AM72" s="13" t="n">
-        <v>66128354</v>
+        <v>66561260</v>
       </c>
       <c r="AN72" s="13" t="n">
-        <v>66561260</v>
+        <v>66836073</v>
       </c>
       <c r="AO72" s="13" t="n">
-        <v>66836073</v>
+        <v>66036565</v>
       </c>
       <c r="AP72" s="13" t="n">
-        <v>66036565</v>
+        <v>64000000</v>
       </c>
       <c r="AQ72" s="13" t="n">
         <v>64000000</v>
       </c>
       <c r="AR72" s="13" t="n">
-        <v>64000000</v>
+        <v>120000000</v>
       </c>
       <c r="AS72" s="13" t="n">
         <v>120000000</v>
@@ -10704,11 +10704,11 @@
       <c r="AN73" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO73" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP73" s="16" t="n">
+      <c r="AO73" s="16" t="n">
         <v>1215043</v>
+      </c>
+      <c r="AP73" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ73" s="16" t="s">
         <v>58</v>
@@ -10803,107 +10803,107 @@
       <c r="T74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="13" t="s">
-        <v>58</v>
+      <c r="U74" s="13" t="n">
+        <v>55173913</v>
       </c>
       <c r="V74" s="13" t="n">
-        <v>55173913</v>
+        <v>71123077</v>
       </c>
       <c r="W74" s="13" t="n">
-        <v>71123077</v>
+        <v>58285714</v>
       </c>
       <c r="X74" s="13" t="n">
-        <v>58285714</v>
+        <v>84127389</v>
       </c>
       <c r="Y74" s="13" t="n">
-        <v>84127389</v>
+        <v>81948718</v>
       </c>
       <c r="Z74" s="13" t="n">
-        <v>81948718</v>
+        <v>57000000</v>
       </c>
       <c r="AA74" s="13" t="n">
-        <v>57000000</v>
+        <v>54877551</v>
       </c>
       <c r="AB74" s="13" t="n">
-        <v>54877551</v>
+        <v>81008621</v>
       </c>
       <c r="AC74" s="13" t="n">
-        <v>81008621</v>
+        <v>78476744</v>
       </c>
       <c r="AD74" s="13" t="n">
-        <v>78476744</v>
+        <v>79956679</v>
       </c>
       <c r="AE74" s="13" t="n">
-        <v>79956679</v>
+        <v>77728324</v>
       </c>
       <c r="AF74" s="13" t="n">
-        <v>77728324</v>
+        <v>76871795</v>
       </c>
       <c r="AG74" s="13" t="n">
-        <v>76871795</v>
+        <v>65234043</v>
       </c>
       <c r="AH74" s="13" t="n">
-        <v>65234043</v>
+        <v>83885714</v>
       </c>
       <c r="AI74" s="13" t="n">
-        <v>83885714</v>
+        <v>88105960</v>
       </c>
       <c r="AJ74" s="13" t="n">
-        <v>88105960</v>
+        <v>81714286</v>
       </c>
       <c r="AK74" s="13" t="n">
-        <v>81714286</v>
+        <v>94631922</v>
       </c>
       <c r="AL74" s="13" t="n">
-        <v>94631922</v>
+        <v>80172932</v>
       </c>
       <c r="AM74" s="13" t="n">
-        <v>80172932</v>
+        <v>81587838</v>
       </c>
       <c r="AN74" s="13" t="n">
-        <v>81587838</v>
+        <v>76852459</v>
       </c>
       <c r="AO74" s="13" t="n">
-        <v>76852459</v>
+        <v>95931579</v>
       </c>
       <c r="AP74" s="13" t="n">
-        <v>95931579</v>
+        <v>93478689</v>
       </c>
       <c r="AQ74" s="13" t="n">
-        <v>93478689</v>
+        <v>65055556</v>
       </c>
       <c r="AR74" s="13" t="n">
-        <v>65055556</v>
+        <v>105076923</v>
       </c>
       <c r="AS74" s="13" t="n">
-        <v>105076923</v>
+        <v>131683761</v>
       </c>
       <c r="AT74" s="13" t="n">
-        <v>131683761</v>
+        <v>49825000</v>
       </c>
       <c r="AU74" s="13" t="n">
-        <v>49825000</v>
+        <v>139740132</v>
       </c>
       <c r="AV74" s="13" t="n">
-        <v>139740132</v>
+        <v>106500000</v>
       </c>
       <c r="AW74" s="13" t="n">
-        <v>106500000</v>
+        <v>111582915</v>
       </c>
       <c r="AX74" s="13" t="n">
-        <v>111582915</v>
+        <v>126663768</v>
       </c>
       <c r="AY74" s="13" t="n">
-        <v>126663768</v>
+        <v>108593607</v>
       </c>
       <c r="AZ74" s="13" t="n">
-        <v>108593607</v>
+        <v>123970772</v>
       </c>
       <c r="BA74" s="13" t="n">
-        <v>123970772</v>
+        <v>118195876</v>
       </c>
       <c r="BB74" s="13" t="n">
-        <v>118195876</v>
+        <v>118142857</v>
       </c>
     </row>
   </sheetData>
